--- a/data/trans_orig/P1202-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1202-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>15600</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9143</v>
+        <v>9179</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25378</v>
+        <v>23919</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02670653671076242</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01565222726591231</v>
+        <v>0.01571289828421429</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04344514204042565</v>
+        <v>0.0409469952038773</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -765,19 +765,19 @@
         <v>31069</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22005</v>
+        <v>21237</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43662</v>
+        <v>44272</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03368478240800266</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02385788170658417</v>
+        <v>0.02302505387709619</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04733905253834286</v>
+        <v>0.0479995396580969</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>45</v>
@@ -786,19 +786,19 @@
         <v>46669</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>35615</v>
+        <v>34189</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>61620</v>
+        <v>61871</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03097894029012209</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02364122716240301</v>
+        <v>0.02269449415808768</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04090365392070381</v>
+        <v>0.04106987276738127</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>42541</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>30500</v>
+        <v>31766</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>54852</v>
+        <v>56417</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07282593561400866</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05221405447814753</v>
+        <v>0.05438010750605692</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09390238856157054</v>
+        <v>0.09658079185017823</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>74</v>
@@ -836,19 +836,19 @@
         <v>78600</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>62831</v>
+        <v>63763</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>98136</v>
+        <v>99127</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08521878720554749</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06812170862713343</v>
+        <v>0.0691324841166803</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1063999331414288</v>
+        <v>0.1074743616260248</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>118</v>
@@ -857,19 +857,19 @@
         <v>121141</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>102437</v>
+        <v>100239</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>145584</v>
+        <v>142728</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08041341043151234</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06799781345976141</v>
+        <v>0.06653891084859404</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0966391717175457</v>
+        <v>0.09474287479946529</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>116653</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>98216</v>
+        <v>97985</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>135840</v>
+        <v>139429</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1996999288228414</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1681380248121527</v>
+        <v>0.1677413214795493</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2325468455692743</v>
+        <v>0.2386903233186497</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>269</v>
@@ -907,19 +907,19 @@
         <v>276771</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>251330</v>
+        <v>250491</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>305480</v>
+        <v>306784</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3000767483617963</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2724934103754342</v>
+        <v>0.2715845715824236</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3312036038336953</v>
+        <v>0.3326172442009901</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>386</v>
@@ -928,19 +928,19 @@
         <v>393424</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>360103</v>
+        <v>359554</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>429089</v>
+        <v>428405</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2611552431939839</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2390369222247292</v>
+        <v>0.238672592930231</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2848297442850178</v>
+        <v>0.2843759564832556</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>120200</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>102471</v>
+        <v>99143</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>141554</v>
+        <v>140354</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.205771534950877</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1754214970125373</v>
+        <v>0.1697241204880606</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2423282271007497</v>
+        <v>0.2402734169477025</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>196</v>
@@ -978,19 +978,19 @@
         <v>203262</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>180142</v>
+        <v>175313</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>229894</v>
+        <v>227933</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2203784813971733</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1953115075408714</v>
+        <v>0.190075870472747</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2492522450004599</v>
+        <v>0.2471262989096934</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>313</v>
@@ -999,19 +999,19 @@
         <v>323462</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>293990</v>
+        <v>294861</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>354982</v>
+        <v>358447</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2147145806658412</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1951511899543211</v>
+        <v>0.1957293461150739</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2356375368467021</v>
+        <v>0.2379375714577014</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>172547</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>150253</v>
+        <v>150837</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>194544</v>
+        <v>194314</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2953851314669936</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2572205149833615</v>
+        <v>0.2582198521408471</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.333043405337043</v>
+        <v>0.3326483988823422</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>210</v>
@@ -1049,19 +1049,19 @@
         <v>219280</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>194003</v>
+        <v>195419</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>246490</v>
+        <v>246785</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2377452023945512</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2103391967728341</v>
+        <v>0.211874758161702</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2672464242996922</v>
+        <v>0.2675662105912339</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>382</v>
@@ -1070,19 +1070,19 @@
         <v>391827</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>359858</v>
+        <v>357734</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>426169</v>
+        <v>425826</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2600953107917869</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2388740743329775</v>
+        <v>0.2374641052259698</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2828914225626912</v>
+        <v>0.2826639110670734</v>
       </c>
     </row>
     <row r="9">
@@ -1099,19 +1099,19 @@
         <v>116601</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>98403</v>
+        <v>96341</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>135583</v>
+        <v>135403</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1996109324345169</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1684581920604413</v>
+        <v>0.1649283914555221</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2321066298162725</v>
+        <v>0.2317985733434531</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>107</v>
@@ -1120,19 +1120,19 @@
         <v>113351</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>94124</v>
+        <v>93837</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>135892</v>
+        <v>133918</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.122895998232929</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1020497302553728</v>
+        <v>0.1017389248787493</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1473348180484328</v>
+        <v>0.1451951403031015</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>215</v>
@@ -1141,19 +1141,19 @@
         <v>229952</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>200879</v>
+        <v>201805</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>257058</v>
+        <v>260505</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1526425146267536</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1333439244652037</v>
+        <v>0.1339582347708219</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1706354523403883</v>
+        <v>0.1729236616041218</v>
       </c>
     </row>
     <row r="10">
@@ -1245,19 +1245,19 @@
         <v>13444</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7404</v>
+        <v>7688</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>22593</v>
+        <v>22496</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01247238545406938</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.006868806869231956</v>
+        <v>0.007132184964093855</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02096014034029221</v>
+        <v>0.02087014773589928</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>23</v>
@@ -1266,19 +1266,19 @@
         <v>24975</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>16204</v>
+        <v>16740</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>37530</v>
+        <v>36461</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02361613168069055</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01532243780240397</v>
+        <v>0.01582953844104877</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03548819171853411</v>
+        <v>0.03447706464267439</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>37</v>
@@ -1287,19 +1287,19 @@
         <v>38419</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>27810</v>
+        <v>28456</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>53481</v>
+        <v>52413</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01799114462548549</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01302330370702687</v>
+        <v>0.01332542884109147</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02504448109306082</v>
+        <v>0.0245443986619676</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>41004</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>29390</v>
+        <v>28782</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>54816</v>
+        <v>56578</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03804107710919952</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02726650184226938</v>
+        <v>0.0267022064035053</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05085484800812047</v>
+        <v>0.05248934852923168</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>63</v>
@@ -1337,19 +1337,19 @@
         <v>64899</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>51020</v>
+        <v>50882</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>82367</v>
+        <v>82897</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06136777908307889</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04824409068542671</v>
+        <v>0.04811325470077919</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07788570381308905</v>
+        <v>0.07838694437573988</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>100</v>
@@ -1358,19 +1358,19 @@
         <v>105903</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>88155</v>
+        <v>87426</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>128386</v>
+        <v>126565</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04959324707424276</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04128182629245573</v>
+        <v>0.0409408046147367</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06012177097237741</v>
+        <v>0.05926887502395775</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>165976</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>144127</v>
+        <v>141269</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>191528</v>
+        <v>190956</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1539819593811027</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1337115502112876</v>
+        <v>0.1310599826582075</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1776869663377984</v>
+        <v>0.1771565167500883</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>225</v>
@@ -1408,19 +1408,19 @@
         <v>231088</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>205043</v>
+        <v>205866</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>257625</v>
+        <v>259278</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2185147776906526</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1938868333327509</v>
+        <v>0.1946653464090494</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2436082576726542</v>
+        <v>0.2451714329843903</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>389</v>
@@ -1429,19 +1429,19 @@
         <v>397064</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>363360</v>
+        <v>363994</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>435284</v>
+        <v>436730</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1859407886348035</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1701577519636671</v>
+        <v>0.1704545780163766</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2038389610649651</v>
+        <v>0.2045158927782103</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>156795</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>135018</v>
+        <v>133905</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>181704</v>
+        <v>181077</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1454642960896549</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.125261095018196</v>
+        <v>0.124227958294774</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1685729040105807</v>
+        <v>0.1679913915303742</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>182</v>
@@ -1479,19 +1479,19 @@
         <v>185493</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>165380</v>
+        <v>161347</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>213129</v>
+        <v>211942</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1754011113734438</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1563819706667459</v>
+        <v>0.1525688526025361</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2015331427033366</v>
+        <v>0.200410432610834</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>335</v>
@@ -1500,19 +1500,19 @@
         <v>342288</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>306945</v>
+        <v>307725</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>375739</v>
+        <v>377409</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1602900172206442</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1437390149677149</v>
+        <v>0.1441044494507642</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1759547278604914</v>
+        <v>0.1767364225274839</v>
       </c>
     </row>
     <row r="15">
@@ -1529,19 +1529,19 @@
         <v>360009</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>329814</v>
+        <v>329149</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>388434</v>
+        <v>392137</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3339930578769327</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3059802246966664</v>
+        <v>0.3053634519584436</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3603639339520971</v>
+        <v>0.363799238398924</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>323</v>
@@ -1550,19 +1550,19 @@
         <v>329713</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>298934</v>
+        <v>298848</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>359123</v>
+        <v>358918</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3117742211774975</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2826700396209255</v>
+        <v>0.2825880975716031</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3395843183216908</v>
+        <v>0.3393903636696795</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>680</v>
@@ -1571,19 +1571,19 @@
         <v>689722</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>646601</v>
+        <v>643517</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>735433</v>
+        <v>729113</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3229895401801389</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3027964061189666</v>
+        <v>0.3013521082728939</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3443953492168972</v>
+        <v>0.3414358592761977</v>
       </c>
     </row>
     <row r="16">
@@ -1600,19 +1600,19 @@
         <v>340665</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>310765</v>
+        <v>310487</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>370877</v>
+        <v>372195</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3160472240890407</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2883079968940643</v>
+        <v>0.2880496378182303</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3440753328825905</v>
+        <v>0.3452987578998509</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>212</v>
@@ -1621,19 +1621,19 @@
         <v>221370</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>197918</v>
+        <v>196114</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>248706</v>
+        <v>246242</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2093259789946367</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1871495863879392</v>
+        <v>0.1854443051972854</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2351746783220025</v>
+        <v>0.2328445217647571</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>542</v>
@@ -1642,19 +1642,19 @@
         <v>562036</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>522346</v>
+        <v>521494</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>604064</v>
+        <v>602908</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2631952622646851</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2446088248443248</v>
+        <v>0.2442098836638519</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2828767384011773</v>
+        <v>0.2823353475816742</v>
       </c>
     </row>
     <row r="17">
@@ -1746,19 +1746,19 @@
         <v>16863</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10032</v>
+        <v>9599</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>26703</v>
+        <v>27286</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0150348354155069</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.008944424824728701</v>
+        <v>0.008557931928751483</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02380847815653526</v>
+        <v>0.02432815953820209</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>15</v>
@@ -1767,19 +1767,19 @@
         <v>15359</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>8348</v>
+        <v>9176</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>24399</v>
+        <v>24613</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0154525645385175</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.00839904938715153</v>
+        <v>0.009232028731037243</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02454810836062974</v>
+        <v>0.0247626290311694</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>31</v>
@@ -1788,19 +1788,19 @@
         <v>32222</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>22121</v>
+        <v>22657</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>44438</v>
+        <v>46383</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01523109675797758</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0104562599457201</v>
+        <v>0.0107098105458959</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02100579608180429</v>
+        <v>0.02192500186744975</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>37702</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>26082</v>
+        <v>26924</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>50981</v>
+        <v>52159</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0336146778572697</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02325465975487873</v>
+        <v>0.0240052289798206</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04545443567190951</v>
+        <v>0.04650476347047173</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>52</v>
@@ -1838,19 +1838,19 @@
         <v>54057</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41294</v>
+        <v>40833</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>70153</v>
+        <v>69572</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05438631474324377</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04154607508121141</v>
+        <v>0.04108146657469819</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07058073094709755</v>
+        <v>0.06999590238742337</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>90</v>
@@ -1859,19 +1859,19 @@
         <v>91759</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>74221</v>
+        <v>74805</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>112461</v>
+        <v>111500</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04337379953682575</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03508397455681199</v>
+        <v>0.03535974157781992</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05315973850922331</v>
+        <v>0.05270550078304542</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>131826</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>112107</v>
+        <v>110377</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>154919</v>
+        <v>154487</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1175342936843875</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09995302306381555</v>
+        <v>0.09841091659123338</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1381237231012836</v>
+        <v>0.1377391153900681</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>179</v>
@@ -1909,19 +1909,19 @@
         <v>186491</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>162336</v>
+        <v>162692</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>209770</v>
+        <v>212213</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.187628407250628</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1633255236462526</v>
+        <v>0.1636841181777555</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2110489178966265</v>
+        <v>0.2135067673172621</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>309</v>
@@ -1930,19 +1930,19 @@
         <v>318317</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>285940</v>
+        <v>286096</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>354761</v>
+        <v>352040</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1504665554540638</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1351620742546623</v>
+        <v>0.1352356240238244</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1676932000449899</v>
+        <v>0.1664071095454127</v>
       </c>
     </row>
     <row r="21">
@@ -1959,19 +1959,19 @@
         <v>163419</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>142137</v>
+        <v>141130</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>188864</v>
+        <v>189322</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1457026952773888</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1267274916362825</v>
+        <v>0.1258294590137809</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1683889796888628</v>
+        <v>0.1687973430004367</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>169</v>
@@ -1980,19 +1980,19 @@
         <v>170506</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>148525</v>
+        <v>147154</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>195679</v>
+        <v>193977</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1715460414216892</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1494302497278786</v>
+        <v>0.148050985050042</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.196871659650446</v>
+        <v>0.1951599473573201</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>326</v>
@@ -2001,19 +2001,19 @@
         <v>333926</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>301744</v>
+        <v>301676</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>371082</v>
+        <v>368702</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1578446540942895</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1426326607662174</v>
+        <v>0.1426005316748844</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1754083103985708</v>
+        <v>0.1742830207799885</v>
       </c>
     </row>
     <row r="22">
@@ -2030,19 +2030,19 @@
         <v>464959</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>433205</v>
+        <v>434298</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>499161</v>
+        <v>499898</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4145519400284581</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3862408064508215</v>
+        <v>0.3872151044315625</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4450464545128007</v>
+        <v>0.4457031044961055</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>404</v>
@@ -2051,19 +2051,19 @@
         <v>404401</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>374938</v>
+        <v>372024</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>436921</v>
+        <v>431678</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4068661279766385</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3772235662958145</v>
+        <v>0.3742919060803749</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.43958535777054</v>
+        <v>0.4343103606041782</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>864</v>
@@ -2072,19 +2072,19 @@
         <v>869359</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>821954</v>
+        <v>826228</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>913349</v>
+        <v>916930</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4109409210494698</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.388532569945987</v>
+        <v>0.3905531373663747</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.431734273593913</v>
+        <v>0.4334269998661116</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>306825</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>275830</v>
+        <v>278849</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>335918</v>
+        <v>337532</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.273561557736989</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2459268911317587</v>
+        <v>0.2486185641351087</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2995005181600696</v>
+        <v>0.3009395569671571</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>163</v>
@@ -2122,19 +2122,19 @@
         <v>163126</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>141299</v>
+        <v>141936</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>187159</v>
+        <v>189217</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1641205440692831</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1421607900888673</v>
+        <v>0.1428018759906287</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1883002488398681</v>
+        <v>0.190370563314398</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>465</v>
@@ -2143,19 +2143,19 @@
         <v>469951</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>435734</v>
+        <v>434824</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>510367</v>
+        <v>510684</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2221429731073736</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2059690055224466</v>
+        <v>0.2055386372389763</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2412475773545795</v>
+        <v>0.2413972084899492</v>
       </c>
     </row>
     <row r="24">
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5719</v>
+        <v>6221</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.003959895829806313</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01278842765500196</v>
+        <v>0.01391014362040354</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -2268,19 +2268,19 @@
         <v>6988</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3033</v>
+        <v>2928</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>14912</v>
+        <v>13898</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02048375300877917</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.008890305497422184</v>
+        <v>0.00858234817346909</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04371003881519481</v>
+        <v>0.04073633869105264</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>9</v>
@@ -2289,19 +2289,19 @@
         <v>8759</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4155</v>
+        <v>4452</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>16321</v>
+        <v>16319</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01111051771457532</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.005269906239983954</v>
+        <v>0.005646985995656515</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02070262568772162</v>
+        <v>0.02070011568246444</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>18397</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>10897</v>
+        <v>10792</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>28225</v>
+        <v>27874</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04113871927285193</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0243675815707919</v>
+        <v>0.02413172595919631</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06311600621810345</v>
+        <v>0.06232923509528298</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>11</v>
@@ -2339,19 +2339,19 @@
         <v>12695</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6576</v>
+        <v>6700</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>22345</v>
+        <v>21867</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03721084855504637</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01927451201481598</v>
+        <v>0.01963786567630676</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06549631275003936</v>
+        <v>0.06409718808519096</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>30</v>
@@ -2360,19 +2360,19 @@
         <v>31092</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>21203</v>
+        <v>21598</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>43516</v>
+        <v>43965</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03943895159687462</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0268957203347237</v>
+        <v>0.02739578940436798</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05519841669389688</v>
+        <v>0.05576784984300533</v>
       </c>
     </row>
     <row r="27">
@@ -2389,19 +2389,19 @@
         <v>72556</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>58988</v>
+        <v>57372</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>90399</v>
+        <v>89052</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1622450302222507</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1319043319111388</v>
+        <v>0.1282923500483476</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2021452708281368</v>
+        <v>0.1991333610571068</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>71</v>
@@ -2410,19 +2410,19 @@
         <v>72436</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>57797</v>
+        <v>58968</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>87281</v>
+        <v>89537</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2123251214019831</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1694137056300438</v>
+        <v>0.1728455963213</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2558368429577944</v>
+        <v>0.2624500781728065</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>143</v>
@@ -2431,19 +2431,19 @@
         <v>144992</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>123054</v>
+        <v>123580</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>167176</v>
+        <v>167108</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1839169553727973</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1560893361882174</v>
+        <v>0.1567563683401214</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2120555248864347</v>
+        <v>0.2119695920594557</v>
       </c>
     </row>
     <row r="28">
@@ -2460,19 +2460,19 @@
         <v>57582</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>44717</v>
+        <v>43947</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>73658</v>
+        <v>72573</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1287612183740391</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09999324453280603</v>
+        <v>0.09827037736704607</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1647101777451312</v>
+        <v>0.1622832450058577</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>60</v>
@@ -2481,19 +2481,19 @@
         <v>59735</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>46718</v>
+        <v>46292</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>74233</v>
+        <v>73779</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1750938600544039</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1369400751858696</v>
+        <v>0.1356911327368877</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.217591517003257</v>
+        <v>0.2162591047442599</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>117</v>
@@ -2502,19 +2502,19 @@
         <v>117317</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>99531</v>
+        <v>98272</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>139771</v>
+        <v>137622</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1488114522867587</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1262506449019733</v>
+        <v>0.1246535034146823</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1772938623679938</v>
+        <v>0.1745672912781326</v>
       </c>
     </row>
     <row r="29">
@@ -2531,19 +2531,19 @@
         <v>138554</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>117832</v>
+        <v>117994</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>159610</v>
+        <v>159143</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3098259940761702</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.263489329524096</v>
+        <v>0.2638506785736526</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3569102308839258</v>
+        <v>0.3558663013800165</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>109</v>
@@ -2552,19 +2552,19 @@
         <v>107175</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>91023</v>
+        <v>89160</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>124522</v>
+        <v>122740</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3141493485221876</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2668052879984341</v>
+        <v>0.2613452530129464</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3649973255451248</v>
+        <v>0.3597759136395415</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>244</v>
@@ -2573,19 +2573,19 @@
         <v>245729</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>217222</v>
+        <v>220645</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>272299</v>
+        <v>271279</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3116969054851991</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2755369361136649</v>
+        <v>0.2798791451295547</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3454000464123579</v>
+        <v>0.344106410700293</v>
       </c>
     </row>
     <row r="30">
@@ -2602,19 +2602,19 @@
         <v>158340</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>137078</v>
+        <v>137315</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>180674</v>
+        <v>179985</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3540691422248817</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3065249371788671</v>
+        <v>0.3070555010667583</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4040125401278623</v>
+        <v>0.402471953670075</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>81</v>
@@ -2623,19 +2623,19 @@
         <v>82129</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>66183</v>
+        <v>66855</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>98568</v>
+        <v>98806</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2407370684575998</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1939947575308337</v>
+        <v>0.1959652064189705</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2889226939437552</v>
+        <v>0.289619201519738</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>232</v>
@@ -2644,19 +2644,19 @@
         <v>240469</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>214396</v>
+        <v>215624</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>267884</v>
+        <v>266021</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3050252175437949</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2719526217182586</v>
+        <v>0.2735103877215059</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3398003501938502</v>
+        <v>0.3374361674768516</v>
       </c>
     </row>
     <row r="31">
@@ -2748,19 +2748,19 @@
         <v>47678</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>35469</v>
+        <v>34924</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>63374</v>
+        <v>63700</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0147572492433787</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0109784122144167</v>
+        <v>0.01080950207348019</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01961524693577856</v>
+        <v>0.01971642753843798</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>74</v>
@@ -2769,19 +2769,19 @@
         <v>78391</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>61719</v>
+        <v>61442</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>96846</v>
+        <v>97217</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02364748040496234</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01861831275485326</v>
+        <v>0.01853457511696424</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0292147368471186</v>
+        <v>0.02932654367456691</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>122</v>
@@ -2790,19 +2790,19 @@
         <v>126069</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>106372</v>
+        <v>103914</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>151034</v>
+        <v>146222</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0192595022287928</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01625045463348326</v>
+        <v>0.01587490970448302</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02307339996460486</v>
+        <v>0.02233828409877635</v>
       </c>
     </row>
     <row r="33">
@@ -2819,19 +2819,19 @@
         <v>139644</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>117986</v>
+        <v>117595</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>163323</v>
+        <v>163777</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.04322238328012251</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.03651871603541725</v>
+        <v>0.03639775973947825</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.0505515485336638</v>
+        <v>0.05069180436080348</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>200</v>
@@ -2840,19 +2840,19 @@
         <v>210250</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>185496</v>
+        <v>184375</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>240492</v>
+        <v>241141</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.06342453678427384</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.05595714742745111</v>
+        <v>0.0556187740360499</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.07254740117955753</v>
+        <v>0.07274304190392805</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>338</v>
@@ -2861,19 +2861,19 @@
         <v>349894</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>318064</v>
+        <v>316116</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>394190</v>
+        <v>388028</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.05345329902041212</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.04859053804408662</v>
+        <v>0.04829300473305796</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.06022029045275994</v>
+        <v>0.05927897427952084</v>
       </c>
     </row>
     <row r="34">
@@ -2890,19 +2890,19 @@
         <v>487011</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>446410</v>
+        <v>446473</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>527953</v>
+        <v>530366</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1507386751539934</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1381719807472616</v>
+        <v>0.1381915749800421</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.163411105788001</v>
+        <v>0.1641578522339552</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>744</v>
@@ -2911,19 +2911,19 @@
         <v>766786</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>718965</v>
+        <v>718950</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>813917</v>
+        <v>816572</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2313102119653187</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2168843323714223</v>
+        <v>0.2168799871819175</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2455276418654329</v>
+        <v>0.2463287333187719</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1227</v>
@@ -2932,19 +2932,19 @@
         <v>1253797</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1191527</v>
+        <v>1195190</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1318618</v>
+        <v>1315723</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1915422758202749</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1820292474868889</v>
+        <v>0.1825888516822012</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2014450301521368</v>
+        <v>0.2010027411310004</v>
       </c>
     </row>
     <row r="35">
@@ -2961,19 +2961,19 @@
         <v>497996</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>454268</v>
+        <v>455676</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>539023</v>
+        <v>542293</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1541387664806513</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1406041666223825</v>
+        <v>0.1410399055243944</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1668373005019013</v>
+        <v>0.1678495471989452</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>607</v>
@@ -2982,19 +2982,19 @@
         <v>618997</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>575075</v>
+        <v>573671</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>666158</v>
+        <v>668952</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1867277910897885</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1734781817247139</v>
+        <v>0.1730545715146103</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2009544618615247</v>
+        <v>0.2017973460626906</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1091</v>
@@ -3003,19 +3003,19 @@
         <v>1116993</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1052850</v>
+        <v>1056509</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1174166</v>
+        <v>1174082</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1706427280392937</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1608436812407149</v>
+        <v>0.1614026122616615</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1793770040928536</v>
+        <v>0.1793642922216126</v>
       </c>
     </row>
     <row r="36">
@@ -3032,19 +3032,19 @@
         <v>1136069</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1078865</v>
+        <v>1083664</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1194093</v>
+        <v>1197666</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3516338547912695</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3339282791873048</v>
+        <v>0.3354134879447563</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3695933239672379</v>
+        <v>0.370699279171111</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1046</v>
@@ -3053,19 +3053,19 @@
         <v>1060568</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1006434</v>
+        <v>1010652</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1114781</v>
+        <v>1115554</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3199331219763197</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3036027050166438</v>
+        <v>0.3048752373908845</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3362870631435422</v>
+        <v>0.3365201919095949</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2170</v>
@@ -3074,19 +3074,19 @@
         <v>2196637</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2123689</v>
+        <v>2119847</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2273676</v>
+        <v>2274653</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3355797481699858</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3244354573002825</v>
+        <v>0.3238484455446859</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3473489785318012</v>
+        <v>0.3474981796701774</v>
       </c>
     </row>
     <row r="37">
@@ -3103,19 +3103,19 @@
         <v>922431</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>872158</v>
+        <v>871001</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>973673</v>
+        <v>978967</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2855090710505847</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2699485204746503</v>
+        <v>0.2695906380082778</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3013693380740747</v>
+        <v>0.3030079759233191</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>563</v>
@@ -3124,19 +3124,19 @@
         <v>579977</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>537494</v>
+        <v>537025</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>626141</v>
+        <v>624724</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1749568577793369</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1621415532417092</v>
+        <v>0.1620000066566047</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1888830459138146</v>
+        <v>0.1884554024485612</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1454</v>
@@ -3145,19 +3145,19 @@
         <v>1502408</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1429712</v>
+        <v>1435197</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1572406</v>
+        <v>1564101</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2295224467212406</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2184167510065884</v>
+        <v>0.2192547788775554</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2402160467428671</v>
+        <v>0.2389473291475628</v>
       </c>
     </row>
     <row r="38">
@@ -3489,19 +3489,19 @@
         <v>42670</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31336</v>
+        <v>30903</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>57247</v>
+        <v>57615</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04087465165232654</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03001733271517557</v>
+        <v>0.02960225021487189</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05483772639228731</v>
+        <v>0.05518993975270422</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>77</v>
@@ -3510,19 +3510,19 @@
         <v>88074</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>69768</v>
+        <v>69231</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>107033</v>
+        <v>107460</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07885435691463258</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06246479083070416</v>
+        <v>0.06198353162967003</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09582852507653422</v>
+        <v>0.09621121308607918</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>117</v>
@@ -3531,19 +3531,19 @@
         <v>130745</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>109998</v>
+        <v>109449</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>156516</v>
+        <v>158136</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06050591895852115</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05090492898183584</v>
+        <v>0.05065093046212735</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07243223861347073</v>
+        <v>0.07318218212398811</v>
       </c>
     </row>
     <row r="5">
@@ -3560,19 +3560,19 @@
         <v>44657</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>30811</v>
+        <v>32361</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>60844</v>
+        <v>61025</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04277771791868999</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02951440172656064</v>
+        <v>0.03099872530413227</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05828333620482593</v>
+        <v>0.05845657697242744</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>80</v>
@@ -3581,19 +3581,19 @@
         <v>87953</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>69927</v>
+        <v>71751</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>107334</v>
+        <v>109218</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07874559269149851</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06260656288190078</v>
+        <v>0.06423987558690811</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.096098459487422</v>
+        <v>0.09778511726896699</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>118</v>
@@ -3602,19 +3602,19 @@
         <v>132610</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>112950</v>
+        <v>109931</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>159369</v>
+        <v>156857</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06136909347634921</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05227110059407684</v>
+        <v>0.05087386139459951</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07375276450470977</v>
+        <v>0.07259008462937033</v>
       </c>
     </row>
     <row r="6">
@@ -3631,19 +3631,19 @@
         <v>164513</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>142251</v>
+        <v>140770</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>190120</v>
+        <v>186348</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1575889129077996</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1362644204094352</v>
+        <v>0.1348452745065808</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1821182148940572</v>
+        <v>0.1785054250593622</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>227</v>
@@ -3652,19 +3652,19 @@
         <v>242747</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>215364</v>
+        <v>213690</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>271981</v>
+        <v>270447</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2173355360672995</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1928190340411732</v>
+        <v>0.191320230187225</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.243509357543171</v>
+        <v>0.2421359350082202</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>380</v>
@@ -3673,19 +3673,19 @@
         <v>407259</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>370035</v>
+        <v>371690</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>445009</v>
+        <v>443852</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1884712465590483</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1712446767552963</v>
+        <v>0.1720104742601514</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2059411998538083</v>
+        <v>0.2054055644813998</v>
       </c>
     </row>
     <row r="7">
@@ -3702,19 +3702,19 @@
         <v>119372</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>98881</v>
+        <v>99122</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>140671</v>
+        <v>141728</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1143479311073163</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09471988726285122</v>
+        <v>0.09495053058070281</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1347510602275006</v>
+        <v>0.1357632192085784</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>128</v>
@@ -3723,19 +3723,19 @@
         <v>140682</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>119477</v>
+        <v>119502</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>164184</v>
+        <v>165329</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1259549509444386</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1069695403786982</v>
+        <v>0.1069924382088555</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1469970391481942</v>
+        <v>0.1480221862817132</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>240</v>
@@ -3744,19 +3744,19 @@
         <v>260054</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>232968</v>
+        <v>228962</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>296495</v>
+        <v>291476</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1203474644759177</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1078128495337442</v>
+        <v>0.1059588605477973</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1372118224025885</v>
+        <v>0.13488900329243</v>
       </c>
     </row>
     <row r="8">
@@ -3773,19 +3773,19 @@
         <v>228788</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>203124</v>
+        <v>201779</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>256373</v>
+        <v>256787</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.219159676309565</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1945752148654359</v>
+        <v>0.1932871982485006</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.245583321067019</v>
+        <v>0.2459800204755294</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>205</v>
@@ -3794,19 +3794,19 @@
         <v>219754</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>196481</v>
+        <v>191244</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>251445</v>
+        <v>247080</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1967496748005899</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1759128322245816</v>
+        <v>0.171224718966026</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2251229648765843</v>
+        <v>0.2212150439294809</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>418</v>
@@ -3815,19 +3815,19 @@
         <v>448542</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>412809</v>
+        <v>412623</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>491253</v>
+        <v>488595</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2075762075354789</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1910397004907559</v>
+        <v>0.1909534864904255</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2273419971125148</v>
+        <v>0.2261115857893307</v>
       </c>
     </row>
     <row r="9">
@@ -3844,19 +3844,19 @@
         <v>443935</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>412351</v>
+        <v>412782</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>478920</v>
+        <v>474806</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4252511101043026</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.394996763850097</v>
+        <v>0.3954101532562808</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4587642087929815</v>
+        <v>0.454823283291674</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>311</v>
@@ -3865,19 +3865,19 @@
         <v>337712</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>306611</v>
+        <v>306126</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>372587</v>
+        <v>370807</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3023598885815409</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2745144885400405</v>
+        <v>0.2740802839882361</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3335844362725229</v>
+        <v>0.3319904860075296</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>733</v>
@@ -3886,19 +3886,19 @@
         <v>781647</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>735220</v>
+        <v>735165</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>825928</v>
+        <v>829597</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3617300689946847</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3402447459348118</v>
+        <v>0.3402192483168157</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3822228265073855</v>
+        <v>0.3839203201633236</v>
       </c>
     </row>
     <row r="10">
@@ -3990,19 +3990,19 @@
         <v>20570</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>12192</v>
+        <v>11903</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>33029</v>
+        <v>33550</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02105246712214044</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0124785247482627</v>
+        <v>0.0121823271647587</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0338039970635842</v>
+        <v>0.03433692902848667</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>41</v>
@@ -4011,19 +4011,19 @@
         <v>44210</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>31239</v>
+        <v>30369</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>57105</v>
+        <v>58067</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0405117851656894</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0286258852078696</v>
+        <v>0.02782843659262589</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05232773687634994</v>
+        <v>0.05320918139758789</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>58</v>
@@ -4032,19 +4032,19 @@
         <v>64780</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>48369</v>
+        <v>48275</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>82493</v>
+        <v>84390</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03131941442407463</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02338526741912388</v>
+        <v>0.02333969682837184</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03988297691582085</v>
+        <v>0.04080048449018843</v>
       </c>
     </row>
     <row r="12">
@@ -4061,19 +4061,19 @@
         <v>32918</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>22228</v>
+        <v>22809</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>47607</v>
+        <v>49086</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03369042635908096</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02274993533200832</v>
+        <v>0.0233442247278896</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04872375154300509</v>
+        <v>0.05023830226407081</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>58</v>
@@ -4082,19 +4082,19 @@
         <v>62681</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>48188</v>
+        <v>48633</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>80842</v>
+        <v>79275</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05743752198395711</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04415727470174766</v>
+        <v>0.04456482319669925</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07407871029630572</v>
+        <v>0.07264357875618743</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>87</v>
@@ -4103,19 +4103,19 @@
         <v>95599</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>77104</v>
+        <v>76986</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>116719</v>
+        <v>117786</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0462196516283818</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03727797583042865</v>
+        <v>0.03722084156706006</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05643073692558184</v>
+        <v>0.05694646513696427</v>
       </c>
     </row>
     <row r="13">
@@ -4132,19 +4132,19 @@
         <v>123913</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>105426</v>
+        <v>104150</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>150982</v>
+        <v>147445</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1268207400458521</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1079003287409519</v>
+        <v>0.106593818559636</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1545251281413026</v>
+        <v>0.1509044576539874</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>184</v>
@@ -4153,19 +4153,19 @@
         <v>196949</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>172162</v>
+        <v>170302</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>225105</v>
+        <v>224957</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1804731734494167</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1577593462558052</v>
+        <v>0.1560551828567704</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2062738323539925</v>
+        <v>0.2061385449843097</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>298</v>
@@ -4174,19 +4174,19 @@
         <v>320862</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>290277</v>
+        <v>288612</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>356841</v>
+        <v>358121</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1551283459517818</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1403411664679725</v>
+        <v>0.1395364580184525</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1725232723026738</v>
+        <v>0.1731422884306231</v>
       </c>
     </row>
     <row r="14">
@@ -4203,19 +4203,19 @@
         <v>130920</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>110883</v>
+        <v>109664</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>154528</v>
+        <v>153693</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1339919434533951</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1134844666616085</v>
+        <v>0.11223748967622</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1581535891311333</v>
+        <v>0.1572991675238052</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>161</v>
@@ -4224,19 +4224,19 @@
         <v>173261</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>150367</v>
+        <v>149985</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>199098</v>
+        <v>199249</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1587667881386353</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1377882631299831</v>
+        <v>0.1374379839148351</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1824421751766901</v>
+        <v>0.1825805824083379</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>284</v>
@@ -4245,19 +4245,19 @@
         <v>304181</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>268813</v>
+        <v>270833</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>338574</v>
+        <v>341588</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1470634202763606</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.129963864980252</v>
+        <v>0.1309407902053403</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1636916087619626</v>
+        <v>0.1651486858911703</v>
       </c>
     </row>
     <row r="15">
@@ -4274,19 +4274,19 @@
         <v>347881</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>315366</v>
+        <v>315891</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>377318</v>
+        <v>380162</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3560436452455486</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3227659757253842</v>
+        <v>0.3233038840298202</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3861719636798184</v>
+        <v>0.3890825377513563</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>344</v>
@@ -4295,19 +4295,19 @@
         <v>369123</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>339406</v>
+        <v>338521</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>400524</v>
+        <v>404478</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3382436602540034</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3110130941636965</v>
+        <v>0.310201760580696</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3670185995261567</v>
+        <v>0.3706411355472883</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>678</v>
@@ -4316,19 +4316,19 @@
         <v>717003</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>674997</v>
+        <v>675011</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>764711</v>
+        <v>763853</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.346652180062934</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3263433222437027</v>
+        <v>0.3263501318247031</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3697176879369781</v>
+        <v>0.369303031754054</v>
       </c>
     </row>
     <row r="16">
@@ -4345,19 +4345,19 @@
         <v>320872</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>291095</v>
+        <v>289970</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>348923</v>
+        <v>350761</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3284007777739828</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2979260198881405</v>
+        <v>0.2967736733444565</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3571103556909924</v>
+        <v>0.3589913914835276</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>230</v>
@@ -4366,19 +4366,19 @@
         <v>245068</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>217869</v>
+        <v>218513</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>272982</v>
+        <v>273988</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2245670710082981</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1996429046047805</v>
+        <v>0.2002335414859797</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2501457707247389</v>
+        <v>0.2510677289232501</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>537</v>
@@ -4387,19 +4387,19 @@
         <v>565940</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>523620</v>
+        <v>524592</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>611117</v>
+        <v>612144</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2736169876564671</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2531567864059673</v>
+        <v>0.253626560025682</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2954591539274861</v>
+        <v>0.2959557791468432</v>
       </c>
     </row>
     <row r="17">
@@ -4491,19 +4491,19 @@
         <v>10380</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5062</v>
+        <v>4979</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17699</v>
+        <v>18065</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01175424622102399</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.00573204794013198</v>
+        <v>0.005638695755232949</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02004353546270957</v>
+        <v>0.02045793677681726</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>15</v>
@@ -4512,19 +4512,19 @@
         <v>17131</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>9932</v>
+        <v>9977</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>28422</v>
+        <v>27305</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01958203094529659</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01135334818749232</v>
+        <v>0.01140446467476502</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03248941723908782</v>
+        <v>0.03121263576623377</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>25</v>
@@ -4533,19 +4533,19 @@
         <v>27510</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>18054</v>
+        <v>18308</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>39950</v>
+        <v>39365</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01564980748386403</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01027061139439222</v>
+        <v>0.01041475720999947</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02272631288806406</v>
+        <v>0.02239370888068232</v>
       </c>
     </row>
     <row r="19">
@@ -4562,19 +4562,19 @@
         <v>23277</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14831</v>
+        <v>14061</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>35563</v>
+        <v>34835</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02636040910798759</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01679549986606408</v>
+        <v>0.01592315211892834</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04027272638537994</v>
+        <v>0.03944825826408555</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>21</v>
@@ -4583,19 +4583,19 @@
         <v>22609</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14163</v>
+        <v>14504</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>34100</v>
+        <v>34477</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02584383898858191</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01618959033341527</v>
+        <v>0.01657971476949595</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03897981584606101</v>
+        <v>0.03941019267682831</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>42</v>
@@ -4604,19 +4604,19 @@
         <v>45886</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>33565</v>
+        <v>32743</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>62187</v>
+        <v>60224</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02610333375173034</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01909415759637919</v>
+        <v>0.01862673382108221</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03537655478981285</v>
+        <v>0.03425984643985107</v>
       </c>
     </row>
     <row r="20">
@@ -4633,19 +4633,19 @@
         <v>113253</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>94929</v>
+        <v>94047</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>135910</v>
+        <v>135367</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1282527512984355</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1075020506168413</v>
+        <v>0.1065024493113503</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1539100472849781</v>
+        <v>0.1532949112339741</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>155</v>
@@ -4654,19 +4654,19 @@
         <v>168788</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>147584</v>
+        <v>145290</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>193847</v>
+        <v>194681</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1929420091853458</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1687039095699055</v>
+        <v>0.1660806397396627</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2215867536545486</v>
+        <v>0.2225399839791788</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>259</v>
@@ -4675,19 +4675,19 @@
         <v>282041</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>250091</v>
+        <v>251282</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>314090</v>
+        <v>315341</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1604458909953801</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1422702799884015</v>
+        <v>0.1429478920978926</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1786774581627216</v>
+        <v>0.1793892275162655</v>
       </c>
     </row>
     <row r="21">
@@ -4704,19 +4704,19 @@
         <v>137867</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>117217</v>
+        <v>114056</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>160893</v>
+        <v>159354</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1561262242712172</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1327411502345875</v>
+        <v>0.1291613611785664</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1822024531793851</v>
+        <v>0.1804587664606684</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>129</v>
@@ -4725,19 +4725,19 @@
         <v>134828</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>113461</v>
+        <v>115967</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>156880</v>
+        <v>159159</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1541219920315721</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.129697755180236</v>
+        <v>0.1325616234406161</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1793300541024742</v>
+        <v>0.1819351005616039</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>260</v>
@@ -4746,19 +4746,19 @@
         <v>272695</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>243820</v>
+        <v>243465</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>304835</v>
+        <v>306210</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1551288016606686</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1387028490344617</v>
+        <v>0.1385009218863512</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1734128196660139</v>
+        <v>0.1741946939386285</v>
       </c>
     </row>
     <row r="22">
@@ -4775,19 +4775,19 @@
         <v>324460</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>294718</v>
+        <v>292728</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>352784</v>
+        <v>353373</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3674320839848956</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3337507269037247</v>
+        <v>0.3314979521546778</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3995079451657008</v>
+        <v>0.4001750523553704</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>302</v>
@@ -4796,19 +4796,19 @@
         <v>321583</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>293389</v>
+        <v>291253</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>350783</v>
+        <v>351707</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.367602336662589</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3353731075043388</v>
+        <v>0.3329318469704229</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4009810619042408</v>
+        <v>0.4020368330018571</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>608</v>
@@ -4817,19 +4817,19 @@
         <v>646043</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>608765</v>
+        <v>605619</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>688288</v>
+        <v>690527</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3675168116261733</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.346310118827754</v>
+        <v>0.344520872042477</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3915488055588771</v>
+        <v>0.392822723762996</v>
       </c>
     </row>
     <row r="23">
@@ -4846,19 +4846,19 @@
         <v>273810</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>246505</v>
+        <v>244043</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>305279</v>
+        <v>301415</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3100742851164401</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2791526341223068</v>
+        <v>0.2763649766081959</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3457111167340089</v>
+        <v>0.3413353656155458</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>198</v>
@@ -4867,19 +4867,19 @@
         <v>209874</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>183287</v>
+        <v>183280</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>233853</v>
+        <v>234821</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2399077921866146</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.209516056478856</v>
+        <v>0.2095076401008427</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2673174065894585</v>
+        <v>0.2684247807928081</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>454</v>
@@ -4888,19 +4888,19 @@
         <v>483685</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>445505</v>
+        <v>446950</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>520058</v>
+        <v>522815</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2751553544821836</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2534358979788923</v>
+        <v>0.2542577437322713</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2958470084350539</v>
+        <v>0.2974155375798183</v>
       </c>
     </row>
     <row r="24">
@@ -4992,19 +4992,19 @@
         <v>3861</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8872</v>
+        <v>10104</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.007690604407965759</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001926671817470662</v>
+        <v>0.001924826997007727</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01767145604800773</v>
+        <v>0.02012458893531425</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>14</v>
@@ -5013,19 +5013,19 @@
         <v>14651</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8427</v>
+        <v>8477</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>23834</v>
+        <v>23307</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03236150971530649</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0186135274421332</v>
+        <v>0.01872320558155007</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05264494120272107</v>
+        <v>0.05148092413685489</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>18</v>
@@ -5034,19 +5034,19 @@
         <v>18512</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>11301</v>
+        <v>11363</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>27979</v>
+        <v>27906</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01938884480278073</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01183614050289608</v>
+        <v>0.01190065892245063</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02930414213432398</v>
+        <v>0.02922694278290427</v>
       </c>
     </row>
     <row r="26">
@@ -5063,19 +5063,19 @@
         <v>10592</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5311</v>
+        <v>5042</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>21423</v>
+        <v>19802</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02109657292456073</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01057797889922031</v>
+        <v>0.01004244749651586</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04267138313645315</v>
+        <v>0.03944120176578592</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>23</v>
@@ -5084,19 +5084,19 @@
         <v>27882</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>18170</v>
+        <v>17899</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>40927</v>
+        <v>39758</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06158515170071185</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04013303317607749</v>
+        <v>0.039535191859418</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09039937463859417</v>
+        <v>0.08781629085876133</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>32</v>
@@ -5105,19 +5105,19 @@
         <v>38473</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>25493</v>
+        <v>25848</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>54226</v>
+        <v>53565</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04029510341492291</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02669994115708188</v>
+        <v>0.02707180438846452</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05679394561441027</v>
+        <v>0.05610156730182365</v>
       </c>
     </row>
     <row r="27">
@@ -5134,19 +5134,19 @@
         <v>75241</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>60443</v>
+        <v>59310</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>94541</v>
+        <v>92854</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1498650938269556</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1203911028874538</v>
+        <v>0.1181334053539457</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1883081550821449</v>
+        <v>0.184946713339876</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>88</v>
@@ -5155,19 +5155,19 @@
         <v>93769</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>76240</v>
+        <v>77281</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>111679</v>
+        <v>112643</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2071169770693526</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1683978071429976</v>
+        <v>0.1706986322025057</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2466747271465786</v>
+        <v>0.2488045708094105</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>158</v>
@@ -5176,19 +5176,19 @@
         <v>169010</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>146466</v>
+        <v>144535</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>195238</v>
+        <v>195016</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.177012305689755</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1534006198550349</v>
+        <v>0.1513785369531273</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2044821122128033</v>
+        <v>0.2042499942610003</v>
       </c>
     </row>
     <row r="28">
@@ -5205,19 +5205,19 @@
         <v>90170</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>71846</v>
+        <v>71381</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>110338</v>
+        <v>110008</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1796001531371625</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1431023233755365</v>
+        <v>0.142176613832099</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2197714467152951</v>
+        <v>0.2191136858242088</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>58</v>
@@ -5226,19 +5226,19 @@
         <v>62686</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>48087</v>
+        <v>48458</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>78752</v>
+        <v>81059</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1384604050229173</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1062139428677348</v>
+        <v>0.1070347193782191</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1739463178003402</v>
+        <v>0.1790428881877145</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>137</v>
@@ -5247,19 +5247,19 @@
         <v>152856</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>130300</v>
+        <v>129637</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>179481</v>
+        <v>177134</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1600928566992252</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1364691168048379</v>
+        <v>0.1357751596517047</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1879792875350107</v>
+        <v>0.1855210844816894</v>
       </c>
     </row>
     <row r="29">
@@ -5276,19 +5276,19 @@
         <v>148103</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>126226</v>
+        <v>127378</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>172879</v>
+        <v>170735</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2949916709411764</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2514181052877213</v>
+        <v>0.2537113930276714</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3443413608532159</v>
+        <v>0.3400718089750542</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>124</v>
@@ -5297,19 +5297,19 @@
         <v>136928</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>118194</v>
+        <v>116450</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>158660</v>
+        <v>157413</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3024460984862922</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2610663942061617</v>
+        <v>0.2572135887314436</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3504462208468308</v>
+        <v>0.3476919531030039</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>255</v>
@@ -5318,19 +5318,19 @@
         <v>285031</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>255942</v>
+        <v>255281</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>314286</v>
+        <v>318462</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2985263480980195</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2680606200219509</v>
+        <v>0.267368094518336</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3291667642433576</v>
+        <v>0.3335406145546726</v>
       </c>
     </row>
     <row r="30">
@@ -5347,19 +5347,19 @@
         <v>174091</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>152256</v>
+        <v>150634</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>197461</v>
+        <v>195337</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.346755904762179</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3032642052774362</v>
+        <v>0.3000340236316945</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3933047939553772</v>
+        <v>0.3890726669357792</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>105</v>
@@ -5368,19 +5368,19 @@
         <v>116819</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>96866</v>
+        <v>97811</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>136994</v>
+        <v>135590</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2580298580054194</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2139565466511739</v>
+        <v>0.216045133269767</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3025922097121854</v>
+        <v>0.2994909712688945</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>272</v>
@@ -5389,19 +5389,19 @@
         <v>290911</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>262334</v>
+        <v>260753</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>324878</v>
+        <v>321848</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3046845412952968</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2747548327307728</v>
+        <v>0.2730991662683547</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3402605394506348</v>
+        <v>0.3370870460127998</v>
       </c>
     </row>
     <row r="31">
@@ -5493,19 +5493,19 @@
         <v>77481</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>61401</v>
+        <v>60908</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>97411</v>
+        <v>97546</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0227476214563717</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01802679183530922</v>
+        <v>0.01788183992392713</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02859888806322237</v>
+        <v>0.02863856457933727</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>147</v>
@@ -5514,19 +5514,19 @@
         <v>164066</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>139368</v>
+        <v>137594</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>191932</v>
+        <v>192086</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.04640191191674344</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0394166310420463</v>
+        <v>0.03891494614434923</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0542829549289727</v>
+        <v>0.05432666055294444</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>218</v>
@@ -5535,19 +5535,19 @@
         <v>241547</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>210598</v>
+        <v>210765</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>278112</v>
+        <v>276800</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0347956571739508</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03033737579930668</v>
+        <v>0.03036137175646954</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04006303374398643</v>
+        <v>0.03987396334974094</v>
       </c>
     </row>
     <row r="33">
@@ -5564,19 +5564,19 @@
         <v>111444</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>90542</v>
+        <v>90321</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>135424</v>
+        <v>137024</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.03271892476267784</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.0265823029022583</v>
+        <v>0.02651738037205691</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03975914048342291</v>
+        <v>0.04022893303495512</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>182</v>
@@ -5585,19 +5585,19 @@
         <v>201124</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>175340</v>
+        <v>174328</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>229324</v>
+        <v>228919</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.05688280069448643</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.04959045267182512</v>
+        <v>0.04930415251248719</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.0648583034304991</v>
+        <v>0.06474381056102074</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>279</v>
@@ -5606,19 +5606,19 @@
         <v>312568</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>274459</v>
+        <v>276917</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>348362</v>
+        <v>347260</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.04502651186994314</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.03953673090468618</v>
+        <v>0.03989084854603437</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.05018275857657872</v>
+        <v>0.05002398643971002</v>
       </c>
     </row>
     <row r="34">
@@ -5635,19 +5635,19 @@
         <v>476920</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>434638</v>
+        <v>437240</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>520993</v>
+        <v>525217</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1400188051449217</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1276052618273354</v>
+        <v>0.1283691785232277</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1529584502039441</v>
+        <v>0.1541983896762567</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>654</v>
@@ -5656,19 +5656,19 @@
         <v>702253</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>658461</v>
+        <v>653775</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>752832</v>
+        <v>751662</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1986143445550027</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1862288304922653</v>
+        <v>0.184903536036881</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2129192565149702</v>
+        <v>0.2125883605888305</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1095</v>
@@ -5677,19 +5677,19 @@
         <v>1179173</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1112272</v>
+        <v>1118384</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1244930</v>
+        <v>1239864</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1698637566511262</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1602265256995342</v>
+        <v>0.1611069748473394</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1793363233983942</v>
+        <v>0.1786065023888994</v>
       </c>
     </row>
     <row r="35">
@@ -5706,19 +5706,19 @@
         <v>478328</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>435722</v>
+        <v>438777</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>522407</v>
+        <v>522757</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1404322687982505</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1279235092481456</v>
+        <v>0.1288206022022477</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1533734786213212</v>
+        <v>0.1534760893018527</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>476</v>
@@ -5727,19 +5727,19 @@
         <v>511457</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>467068</v>
+        <v>469744</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>552913</v>
+        <v>556550</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1446524348975083</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1320983795024434</v>
+        <v>0.1328551389798332</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1563774141536602</v>
+        <v>0.1574060404352486</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>921</v>
@@ -5748,19 +5748,19 @@
         <v>989784</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>936866</v>
+        <v>926706</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1062908</v>
+        <v>1049030</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1425817609583792</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1349586445601324</v>
+        <v>0.1334950297308723</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1531154470472134</v>
+        <v>0.1511162989964144</v>
       </c>
     </row>
     <row r="36">
@@ -5777,19 +5777,19 @@
         <v>1049231</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>994638</v>
+        <v>990175</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1106890</v>
+        <v>1105610</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3080437509346847</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2920157266097967</v>
+        <v>0.2907053842851159</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3249717372193356</v>
+        <v>0.3245958802513613</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>975</v>
@@ -5798,19 +5798,19 @@
         <v>1047388</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>992128</v>
+        <v>995999</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1108596</v>
+        <v>1107149</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2962269416258027</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2805981165822888</v>
+        <v>0.2816927514458381</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3135379961249531</v>
+        <v>0.3131287037525929</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1959</v>
@@ -5819,19 +5819,19 @@
         <v>2096619</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2015838</v>
+        <v>2017656</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2173104</v>
+        <v>2175742</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3020249975563179</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2903882057368359</v>
+        <v>0.2906501100602487</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3130429147869848</v>
+        <v>0.3134229177643938</v>
       </c>
     </row>
     <row r="37">
@@ -5848,19 +5848,19 @@
         <v>1212707</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1151173</v>
+        <v>1159866</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1268056</v>
+        <v>1278272</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3560386289030935</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3379729078772516</v>
+        <v>0.340524948655993</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3722884587427831</v>
+        <v>0.3752876828431179</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>844</v>
@@ -5869,19 +5869,19 @@
         <v>909474</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>858537</v>
+        <v>861697</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>962409</v>
+        <v>967966</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2572215663104564</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2428153789227613</v>
+        <v>0.2437090739866223</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2721928101648591</v>
+        <v>0.2737643824831771</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1996</v>
@@ -5890,19 +5890,19 @@
         <v>2122181</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2038259</v>
+        <v>2046396</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2200172</v>
+        <v>2198249</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3057073157902828</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2936180591992725</v>
+        <v>0.2947901655856331</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3169421410864438</v>
+        <v>0.3166651003537206</v>
       </c>
     </row>
     <row r="38">
@@ -6234,19 +6234,19 @@
         <v>31295</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21650</v>
+        <v>21647</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44881</v>
+        <v>44967</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0278213342801722</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01924642374812023</v>
+        <v>0.01924434943045226</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03989876362379956</v>
+        <v>0.03997522215825871</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>39</v>
@@ -6255,19 +6255,19 @@
         <v>42970</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>30320</v>
+        <v>31650</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>57440</v>
+        <v>58638</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0342498138784541</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02416703129386759</v>
+        <v>0.02522700580917346</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04578275665874619</v>
+        <v>0.04673760410677105</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>68</v>
@@ -6276,19 +6276,19 @@
         <v>74266</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>56729</v>
+        <v>57690</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>92768</v>
+        <v>93286</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03121082458027522</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02384107061212633</v>
+        <v>0.02424471011969861</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03898658104104378</v>
+        <v>0.03920412692299909</v>
       </c>
     </row>
     <row r="5">
@@ -6305,19 +6305,19 @@
         <v>44487</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>32144</v>
+        <v>32352</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>59831</v>
+        <v>58356</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03954885968002528</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02857526102851136</v>
+        <v>0.02876086061366549</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05318871743237519</v>
+        <v>0.0518777229799916</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>99</v>
@@ -6326,19 +6326,19 @@
         <v>111865</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>92125</v>
+        <v>92242</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>133926</v>
+        <v>136574</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08916311341854224</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07342949050146368</v>
+        <v>0.07352233291716614</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.106746795902842</v>
+        <v>0.1088580209417437</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>142</v>
@@ -6347,19 +6347,19 @@
         <v>156353</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>131446</v>
+        <v>134777</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>182410</v>
+        <v>184712</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06570854942042643</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05524127643426945</v>
+        <v>0.05664139026302893</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07665960604254095</v>
+        <v>0.07762675677689018</v>
       </c>
     </row>
     <row r="6">
@@ -6376,19 +6376,19 @@
         <v>176645</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>153860</v>
+        <v>152689</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>202264</v>
+        <v>200822</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1570349503325313</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1367801194301318</v>
+        <v>0.1357384514390614</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1798103011621446</v>
+        <v>0.178528726591096</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>236</v>
@@ -6397,19 +6397,19 @@
         <v>256899</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>229742</v>
+        <v>226715</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>289679</v>
+        <v>287883</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.204764161310092</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1831181405542124</v>
+        <v>0.180705311960277</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.230891251194393</v>
+        <v>0.2294601217486934</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>411</v>
@@ -6418,19 +6418,19 @@
         <v>433544</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>398404</v>
+        <v>395222</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>475786</v>
+        <v>470728</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1822007294513217</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1674326940923208</v>
+        <v>0.1660955946392484</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1999531534599874</v>
+        <v>0.1978277565353312</v>
       </c>
     </row>
     <row r="7">
@@ -6447,19 +6447,19 @@
         <v>262625</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>233835</v>
+        <v>235053</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>292572</v>
+        <v>294612</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2334705287134367</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2078768199241463</v>
+        <v>0.2089590527800893</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2600934223230876</v>
+        <v>0.2619067051011034</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>257</v>
@@ -6468,19 +6468,19 @@
         <v>266737</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>239762</v>
+        <v>238938</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>297407</v>
+        <v>299386</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2126053130006505</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1911050443195157</v>
+        <v>0.1904482146629614</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2370509914277022</v>
+        <v>0.2386289191915921</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>510</v>
@@ -6489,19 +6489,19 @@
         <v>529362</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>486518</v>
+        <v>488189</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>569946</v>
+        <v>568902</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.222469102141756</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2044634904046917</v>
+        <v>0.2051656393248559</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2395250478541177</v>
+        <v>0.2390859574092048</v>
       </c>
     </row>
     <row r="8">
@@ -6518,19 +6518,19 @@
         <v>286670</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>255700</v>
+        <v>255982</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>317355</v>
+        <v>316627</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.254846429616729</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.227314491206718</v>
+        <v>0.2275647733015083</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2821248245342529</v>
+        <v>0.2814776522936258</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>282</v>
@@ -6539,19 +6539,19 @@
         <v>294738</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>263726</v>
+        <v>265501</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>328010</v>
+        <v>327009</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2349240575821101</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2102055057261587</v>
+        <v>0.2116199770714155</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2614432437395116</v>
+        <v>0.2606457099049151</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>547</v>
@@ -6560,19 +6560,19 @@
         <v>581409</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>539645</v>
+        <v>542010</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>625228</v>
+        <v>626996</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.244342128291042</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2267907710880238</v>
+        <v>0.2277843673625767</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2627575706070949</v>
+        <v>0.2635004904567669</v>
       </c>
     </row>
     <row r="9">
@@ -6589,19 +6589,19 @@
         <v>323151</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>293890</v>
+        <v>291902</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>355848</v>
+        <v>355756</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2872778973771055</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2612652330328092</v>
+        <v>0.2594971625771568</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3163448762728134</v>
+        <v>0.3162626982184163</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>270</v>
@@ -6610,19 +6610,19 @@
         <v>281401</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>253761</v>
+        <v>252386</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>315038</v>
+        <v>314140</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2242935408101511</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.202262880595045</v>
+        <v>0.2011669376828065</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2511043049988173</v>
+        <v>0.2503879952056395</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>568</v>
@@ -6631,19 +6631,19 @@
         <v>604553</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>561479</v>
+        <v>559447</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>650459</v>
+        <v>648530</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2540686661151787</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2359664791818979</v>
+        <v>0.2351126879724941</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2733610744650832</v>
+        <v>0.2725502877365783</v>
       </c>
     </row>
     <row r="10">
@@ -6735,19 +6735,19 @@
         <v>14147</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8568</v>
+        <v>7909</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>23617</v>
+        <v>23539</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01558297808213399</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.009437964259707421</v>
+        <v>0.008712418725260934</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02601469643535498</v>
+        <v>0.02592837777811497</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>24</v>
@@ -6756,19 +6756,19 @@
         <v>27006</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17385</v>
+        <v>17706</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>39146</v>
+        <v>39221</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02686654733602589</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01729502983823483</v>
+        <v>0.0176140353102229</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.038943547483346</v>
+        <v>0.03901815060304871</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>39</v>
@@ -6777,19 +6777,19 @@
         <v>41153</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>29679</v>
+        <v>28633</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>55342</v>
+        <v>53922</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0215119075960049</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01551398885299244</v>
+        <v>0.01496722498812868</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02892896174262044</v>
+        <v>0.02818671031898971</v>
       </c>
     </row>
     <row r="12">
@@ -6806,19 +6806,19 @@
         <v>24355</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16617</v>
+        <v>15441</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>35225</v>
+        <v>34885</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02682755231175716</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01830357519760898</v>
+        <v>0.01700908602014018</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03880044684558946</v>
+        <v>0.03842668054442734</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>39</v>
@@ -6827,19 +6827,19 @@
         <v>45035</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>31366</v>
+        <v>32341</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>59644</v>
+        <v>60133</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04480185712488547</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03120344357935955</v>
+        <v>0.03217316987455304</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0593350463317292</v>
+        <v>0.05982188374122883</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>64</v>
@@ -6848,19 +6848,19 @@
         <v>69390</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>53705</v>
+        <v>53526</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>87167</v>
+        <v>87927</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03627211580935</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02807286595272278</v>
+        <v>0.02797926914879764</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04556485465107171</v>
+        <v>0.04596194530977973</v>
       </c>
     </row>
     <row r="13">
@@ -6877,19 +6877,19 @@
         <v>109815</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>89287</v>
+        <v>92385</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>128738</v>
+        <v>129294</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1209630065339613</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09835089912334616</v>
+        <v>0.1017638073937298</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1418075164623363</v>
+        <v>0.1424201978135247</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>144</v>
@@ -6898,19 +6898,19 @@
         <v>155213</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>134283</v>
+        <v>133563</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>182759</v>
+        <v>177778</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1544094965962022</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1335875056107122</v>
+        <v>0.1328712489835855</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1818131199279198</v>
+        <v>0.1768574143958851</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>254</v>
@@ -6919,19 +6919,19 @@
         <v>265028</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>235783</v>
+        <v>234904</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>298129</v>
+        <v>297408</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1385373996717544</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.12325010099019</v>
+        <v>0.1227909707020437</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1558404505642534</v>
+        <v>0.1554635031251366</v>
       </c>
     </row>
     <row r="14">
@@ -6948,19 +6948,19 @@
         <v>174414</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>149853</v>
+        <v>152877</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>197667</v>
+        <v>199271</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1921199912378792</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1650662550149198</v>
+        <v>0.168396927794994</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2177342165836998</v>
+        <v>0.2195008693317285</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>200</v>
@@ -6969,19 +6969,19 @@
         <v>214501</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>188037</v>
+        <v>187094</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>240949</v>
+        <v>243311</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2133908010541381</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1870633551618617</v>
+        <v>0.1861250210778646</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2397013996903391</v>
+        <v>0.2420510854978554</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>374</v>
@@ -6990,19 +6990,19 @@
         <v>388915</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>356218</v>
+        <v>357284</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>430616</v>
+        <v>428613</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2032966968764832</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1862051680250298</v>
+        <v>0.1867624044249524</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2250947742151948</v>
+        <v>0.2240477388062213</v>
       </c>
     </row>
     <row r="15">
@@ -7019,19 +7019,19 @@
         <v>266883</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>239084</v>
+        <v>238173</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>293745</v>
+        <v>294706</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2939764783756747</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2633552472073591</v>
+        <v>0.2623518210265156</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3235651782723118</v>
+        <v>0.3246244448974476</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>261</v>
@@ -7040,19 +7040,19 @@
         <v>270280</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>243378</v>
+        <v>241410</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>300264</v>
+        <v>298315</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2688806179742634</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2421177322025429</v>
+        <v>0.2401597271435914</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2987090541157609</v>
+        <v>0.2967703160372093</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>519</v>
@@ -7061,19 +7061,19 @@
         <v>537163</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>499300</v>
+        <v>499262</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>577366</v>
+        <v>579999</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2807899073481968</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2609978663996452</v>
+        <v>0.2609778976042267</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3018054126923548</v>
+        <v>0.3031813909014228</v>
       </c>
     </row>
     <row r="16">
@@ -7090,19 +7090,19 @@
         <v>318224</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>290188</v>
+        <v>291314</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>347115</v>
+        <v>348544</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3505299934585936</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3196469097313911</v>
+        <v>0.3208871234349174</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3823531849657101</v>
+        <v>0.3839275479039204</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>282</v>
@@ -7111,19 +7111,19 @@
         <v>293168</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>263267</v>
+        <v>262879</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>322373</v>
+        <v>323914</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.291650679914485</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2619045384373493</v>
+        <v>0.2615178735577909</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.32070416717936</v>
+        <v>0.3222374704213992</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>580</v>
@@ -7132,19 +7132,19 @@
         <v>611393</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>567728</v>
+        <v>568705</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>653796</v>
+        <v>650833</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3195919726982108</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.296767178344327</v>
+        <v>0.2972777069010984</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3417571186359494</v>
+        <v>0.3402081766284296</v>
       </c>
     </row>
     <row r="17">
@@ -7236,19 +7236,19 @@
         <v>7398</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3378</v>
+        <v>3412</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13907</v>
+        <v>14126</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.008980259580721173</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.00410058175407752</v>
+        <v>0.004142090623728814</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01688247805903192</v>
+        <v>0.01714812172220314</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>20</v>
@@ -7257,19 +7257,19 @@
         <v>23452</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>14471</v>
+        <v>14699</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>34517</v>
+        <v>35594</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03041563575259482</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01876749931212415</v>
+        <v>0.01906278374749157</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04476596516390077</v>
+        <v>0.04616265890598981</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>28</v>
@@ -7278,19 +7278,19 @@
         <v>30850</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>20485</v>
+        <v>20776</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>44290</v>
+        <v>45088</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01934378276416177</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01284462215507949</v>
+        <v>0.01302714620774219</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02777121470085957</v>
+        <v>0.02827179379878702</v>
       </c>
     </row>
     <row r="19">
@@ -7307,19 +7307,19 @@
         <v>18257</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11276</v>
+        <v>10508</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28194</v>
+        <v>28329</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02216337754578966</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01368841010055576</v>
+        <v>0.01275665956994692</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03422628223433747</v>
+        <v>0.03439015514167204</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>24</v>
@@ -7328,19 +7328,19 @@
         <v>30174</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19283</v>
+        <v>19021</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>45374</v>
+        <v>45486</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03913357453715886</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02500800359457865</v>
+        <v>0.02466864567758728</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05884686867303907</v>
+        <v>0.05899144430707182</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>42</v>
@@ -7349,19 +7349,19 @@
         <v>48432</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>36568</v>
+        <v>35323</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>64307</v>
+        <v>65702</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03036808683278492</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02292937432394801</v>
+        <v>0.02214877999636158</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04032250812250295</v>
+        <v>0.04119724164553776</v>
       </c>
     </row>
     <row r="20">
@@ -7378,19 +7378,19 @@
         <v>85779</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>68466</v>
+        <v>70225</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>102779</v>
+        <v>106224</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1041307330008525</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08311451263100203</v>
+        <v>0.08524981289736829</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1247684985275912</v>
+        <v>0.1289507021107459</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>94</v>
@@ -7399,19 +7399,19 @@
         <v>103943</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>84519</v>
+        <v>87722</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>123917</v>
+        <v>127674</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1348054509268607</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1096143721161337</v>
+        <v>0.1137677647541251</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1607097189664444</v>
+        <v>0.1655823815550869</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>180</v>
@@ -7420,19 +7420,19 @@
         <v>189722</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>164172</v>
+        <v>165778</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>215978</v>
+        <v>219018</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1189612705114942</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1029409632090244</v>
+        <v>0.1039477054849978</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1354247066308941</v>
+        <v>0.1373312534281403</v>
       </c>
     </row>
     <row r="21">
@@ -7449,19 +7449,19 @@
         <v>150870</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>128925</v>
+        <v>127861</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>173175</v>
+        <v>173033</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1831477743098496</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1565080877438418</v>
+        <v>0.1552166924222359</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2102258738924133</v>
+        <v>0.2100526914454986</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>126</v>
@@ -7470,19 +7470,19 @@
         <v>133312</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>113184</v>
+        <v>112162</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>155380</v>
+        <v>154567</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1728944073462765</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1467899483740837</v>
+        <v>0.1454649082385902</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2015151255548361</v>
+        <v>0.2004612738974484</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>274</v>
@@ -7491,19 +7491,19 @@
         <v>284181</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>254132</v>
+        <v>255839</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>316104</v>
+        <v>318113</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1781905015574011</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1593487838613547</v>
+        <v>0.1604188899743861</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1982069005247766</v>
+        <v>0.1994666415905598</v>
       </c>
     </row>
     <row r="22">
@@ -7520,19 +7520,19 @@
         <v>254619</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>229500</v>
+        <v>229458</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>281912</v>
+        <v>281903</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3090939197842845</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2786003152226201</v>
+        <v>0.278550419452407</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3422268175682623</v>
+        <v>0.3422153202691145</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>224</v>
@@ -7541,19 +7541,19 @@
         <v>234830</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>209310</v>
+        <v>206081</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>264717</v>
+        <v>261656</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3045555490226883</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.271457648926884</v>
+        <v>0.2672699055699201</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3433160766743476</v>
+        <v>0.3393464789870621</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>465</v>
@@ -7562,19 +7562,19 @@
         <v>489449</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>452154</v>
+        <v>453655</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>525901</v>
+        <v>527401</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3068997194014349</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2835142872253695</v>
+        <v>0.2844554970126192</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3297558552083198</v>
+        <v>0.3306968479306034</v>
       </c>
     </row>
     <row r="23">
@@ -7591,19 +7591,19 @@
         <v>306837</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>277689</v>
+        <v>279740</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>336417</v>
+        <v>333815</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3724839357785026</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3371004022607552</v>
+        <v>0.3395899986668469</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4083920882949769</v>
+        <v>0.4052338465797563</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>240</v>
@@ -7612,19 +7612,19 @@
         <v>245347</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>220912</v>
+        <v>218206</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>272869</v>
+        <v>271861</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3181953824144208</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2865045719011575</v>
+        <v>0.2829947825333414</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3538884198104763</v>
+        <v>0.3525815535051066</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>526</v>
@@ -7633,19 +7633,19 @@
         <v>552184</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>515658</v>
+        <v>513243</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>590277</v>
+        <v>591708</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3462366389327232</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3233336569521859</v>
+        <v>0.3218190529576251</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3701219197894897</v>
+        <v>0.3710190333015586</v>
       </c>
     </row>
     <row r="24">
@@ -7737,19 +7737,19 @@
         <v>6826</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2435</v>
+        <v>2613</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14363</v>
+        <v>13913</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01347049713619634</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004805833159275331</v>
+        <v>0.005157604025079706</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02834642755336456</v>
+        <v>0.0274581628855841</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>14</v>
@@ -7758,19 +7758,19 @@
         <v>15609</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8679</v>
+        <v>9154</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>26253</v>
+        <v>25822</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03187425179180061</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01772288025937055</v>
+        <v>0.01869281072495466</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05361000044965957</v>
+        <v>0.05273141492005061</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>20</v>
@@ -7779,19 +7779,19 @@
         <v>22434</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>13984</v>
+        <v>13901</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>33986</v>
+        <v>34597</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02251534618393679</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01403495538934004</v>
+        <v>0.01395146972208307</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03410906755957926</v>
+        <v>0.03472188621104955</v>
       </c>
     </row>
     <row r="26">
@@ -7808,19 +7808,19 @@
         <v>19181</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>11386</v>
+        <v>11512</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>29551</v>
+        <v>31132</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03785548597585107</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02247102815177223</v>
+        <v>0.02271925648368496</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05831985240042185</v>
+        <v>0.06144103052576597</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>17</v>
@@ -7829,19 +7829,19 @@
         <v>21377</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>13266</v>
+        <v>12571</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>32750</v>
+        <v>32563</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04365443791364921</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02709046725463139</v>
+        <v>0.02567117795974532</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06687749343711209</v>
+        <v>0.0664953900589602</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>34</v>
@@ -7850,19 +7850,19 @@
         <v>40559</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>28061</v>
+        <v>27500</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>56449</v>
+        <v>55855</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04070548294081898</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02816203517722756</v>
+        <v>0.02759943620149477</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0566533504167207</v>
+        <v>0.05605733458084927</v>
       </c>
     </row>
     <row r="27">
@@ -7879,19 +7879,19 @@
         <v>51694</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>39440</v>
+        <v>39073</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>67386</v>
+        <v>66352</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1020216866622505</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.07783747152466193</v>
+        <v>0.07711267386267556</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1329890708281175</v>
+        <v>0.1309498325069677</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>55</v>
@@ -7900,19 +7900,19 @@
         <v>59561</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>45522</v>
+        <v>45657</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>76704</v>
+        <v>76477</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1216280838267996</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.09295866361077831</v>
+        <v>0.09323545938285381</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1566343904901662</v>
+        <v>0.1561723918299679</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>105</v>
@@ -7921,19 +7921,19 @@
         <v>111255</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>92017</v>
+        <v>91749</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>133836</v>
+        <v>133957</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1116575955320414</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.09235009924036727</v>
+        <v>0.09208112420259087</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1343200993938728</v>
+        <v>0.1344414758677925</v>
       </c>
     </row>
     <row r="28">
@@ -7950,19 +7950,19 @@
         <v>83400</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>66692</v>
+        <v>67620</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>102371</v>
+        <v>102633</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1645935956410257</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1316202596818141</v>
+        <v>0.1334519374656207</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2020339466460706</v>
+        <v>0.2025506219291532</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>70</v>
@@ -7971,19 +7971,19 @@
         <v>77749</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>62762</v>
+        <v>62872</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>96589</v>
+        <v>98015</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1587683644530506</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1281643991533375</v>
+        <v>0.1283883128721518</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.197241443908629</v>
+        <v>0.2001536001054488</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>146</v>
@@ -7992,19 +7992,19 @@
         <v>161148</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>136224</v>
+        <v>138829</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>185868</v>
+        <v>187213</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1617306832761632</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1367160490552848</v>
+        <v>0.1393305486143289</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1865400324589745</v>
+        <v>0.1878897381760946</v>
       </c>
     </row>
     <row r="29">
@@ -8021,19 +8021,19 @@
         <v>138867</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>118735</v>
+        <v>118169</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>159993</v>
+        <v>160500</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2740618696627473</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2343299177944121</v>
+        <v>0.2332131538786539</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3157538808594955</v>
+        <v>0.3167545232263078</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>134</v>
@@ -8042,19 +8042,19 @@
         <v>140804</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>119679</v>
+        <v>118658</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>160938</v>
+        <v>159744</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2875321651835459</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2443939239921729</v>
+        <v>0.2423077897982287</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3286469861397488</v>
+        <v>0.3262084954714736</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>264</v>
@@ -8063,19 +8063,19 @@
         <v>279671</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>251445</v>
+        <v>251535</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>307987</v>
+        <v>311110</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.280682083412281</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2523543802106991</v>
+        <v>0.252444111917854</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.309100853056481</v>
+        <v>0.3122344077596921</v>
       </c>
     </row>
     <row r="30">
@@ -8092,19 +8092,19 @@
         <v>206732</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>184726</v>
+        <v>184457</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>230936</v>
+        <v>229969</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4079968649219291</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.364565262239786</v>
+        <v>0.3640356410519097</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4557643929491673</v>
+        <v>0.4538554678671261</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>165</v>
@@ -8113,19 +8113,19 @@
         <v>174598</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>153459</v>
+        <v>153008</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>196161</v>
+        <v>198050</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3565426968311541</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3133737752378914</v>
+        <v>0.3124545391469015</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4005755623916664</v>
+        <v>0.4044333250417665</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>357</v>
@@ -8134,19 +8134,19 @@
         <v>381330</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>353939</v>
+        <v>352641</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>416115</v>
+        <v>413019</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3827088086547585</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3552187822502387</v>
+        <v>0.353915722776542</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4176187731238726</v>
+        <v>0.4145121234475493</v>
       </c>
     </row>
     <row r="31">
@@ -8238,19 +8238,19 @@
         <v>59665</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>45845</v>
+        <v>46383</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>78808</v>
+        <v>78548</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01774081124949685</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01363133690747659</v>
+        <v>0.01379140834798456</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02343256330824389</v>
+        <v>0.02335524452051676</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>97</v>
@@ -8259,19 +8259,19 @@
         <v>109038</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>87987</v>
+        <v>87977</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>131324</v>
+        <v>131756</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03097154695377308</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02499237924091553</v>
+        <v>0.02498953603037608</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03730198123401746</v>
+        <v>0.03742464689802467</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>155</v>
@@ -8280,19 +8280,19 @@
         <v>168703</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>146082</v>
+        <v>142910</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>198867</v>
+        <v>198592</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02450744208572731</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02122129046109935</v>
+        <v>0.02076046554398336</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02888939693091822</v>
+        <v>0.02884942398905373</v>
       </c>
     </row>
     <row r="33">
@@ -8309,19 +8309,19 @@
         <v>106281</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>86315</v>
+        <v>86208</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>127448</v>
+        <v>127892</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.03160149065716389</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.025664650534795</v>
+        <v>0.02563298657704532</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03789509300268482</v>
+        <v>0.03802728258146908</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>179</v>
@@ -8330,19 +8330,19 @@
         <v>208452</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>182619</v>
+        <v>179672</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>243431</v>
+        <v>240298</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.0592096492992317</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.05187204376493876</v>
+        <v>0.05103478540865455</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.06914528442474947</v>
+        <v>0.06825548464913155</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>282</v>
@@ -8351,19 +8351,19 @@
         <v>314733</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>278060</v>
+        <v>280975</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>352186</v>
+        <v>352722</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.04572120567335756</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.0403936521332358</v>
+        <v>0.04081723870572305</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.05116196157529044</v>
+        <v>0.05123991970422607</v>
       </c>
     </row>
     <row r="34">
@@ -8380,19 +8380,19 @@
         <v>423932</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>385221</v>
+        <v>386628</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>462139</v>
+        <v>460827</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1260513794204229</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1145408874137296</v>
+        <v>0.1149594047650122</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.137411771158389</v>
+        <v>0.1370216562910772</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>529</v>
@@ -8401,19 +8401,19 @@
         <v>575616</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>534723</v>
+        <v>528244</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>623753</v>
+        <v>618579</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1635008278454905</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1518852984218607</v>
+        <v>0.1500449121298857</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1771736241802872</v>
+        <v>0.1757042130310418</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>950</v>
@@ -8422,19 +8422,19 @@
         <v>999549</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>935532</v>
+        <v>942538</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1056003</v>
+        <v>1066116</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1452042518061197</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1359045073255701</v>
+        <v>0.1369222571924674</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1534052597417135</v>
+        <v>0.1548744706219263</v>
       </c>
     </row>
     <row r="35">
@@ -8451,19 +8451,19 @@
         <v>671308</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>628650</v>
+        <v>621796</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>721445</v>
+        <v>717515</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1996056495241932</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1869217877596522</v>
+        <v>0.1848839314095223</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2145131593024927</v>
+        <v>0.2133447226040976</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>653</v>
@@ -8472,19 +8472,19 @@
         <v>692299</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>645392</v>
+        <v>646146</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>739562</v>
+        <v>739385</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1966437905539294</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1833202612205007</v>
+        <v>0.1835342939528518</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2100687860821637</v>
+        <v>0.2100182954412991</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1304</v>
@@ -8493,19 +8493,19 @@
         <v>1363607</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1297527</v>
+        <v>1295482</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1428337</v>
+        <v>1430485</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.198090858004756</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.188491494379484</v>
+        <v>0.188194432000765</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2074941441143774</v>
+        <v>0.207806299493677</v>
       </c>
     </row>
     <row r="36">
@@ -8522,19 +8522,19 @@
         <v>947039</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>898128</v>
+        <v>896456</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>999655</v>
+        <v>1002967</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2815911479087898</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.267047982247714</v>
+        <v>0.2665507845478102</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2972356465218211</v>
+        <v>0.2982205789242269</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>901</v>
@@ -8543,19 +8543,19 @@
         <v>940652</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>890036</v>
+        <v>888822</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>995467</v>
+        <v>996526</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2671873701140823</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2528101832229638</v>
+        <v>0.2524651246330168</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2827571029484655</v>
+        <v>0.28305805321362</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1795</v>
@@ -8564,19 +8564,19 @@
         <v>1887692</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1811138</v>
+        <v>1814045</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1958222</v>
+        <v>1966998</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2742245849932916</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.263103636614709</v>
+        <v>0.2635259840241098</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2844705035610761</v>
+        <v>0.2857454254284178</v>
       </c>
     </row>
     <row r="37">
@@ -8593,19 +8593,19 @@
         <v>1154945</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1097702</v>
+        <v>1095886</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1207698</v>
+        <v>1210231</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3434095212399334</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3263888048688293</v>
+        <v>0.3258489007497732</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3590947851443742</v>
+        <v>0.3598481667026692</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>957</v>
@@ -8614,19 +8614,19 @@
         <v>994515</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>942448</v>
+        <v>944391</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1051948</v>
+        <v>1054030</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.282486815233493</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2676974806654428</v>
+        <v>0.2682494022827548</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2988004168247803</v>
+        <v>0.299391750028874</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2031</v>
@@ -8635,19 +8635,19 @@
         <v>2149460</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2078782</v>
+        <v>2068504</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2226567</v>
+        <v>2233582</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3122516574367479</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3019842577003505</v>
+        <v>0.3004911929274262</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3234528432384928</v>
+        <v>0.3244719210642515</v>
       </c>
     </row>
     <row r="38">
@@ -8979,19 +8979,19 @@
         <v>18554</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11712</v>
+        <v>11845</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28266</v>
+        <v>29391</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03720130920015002</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02348396035787063</v>
+        <v>0.02375080961921493</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05667397105670888</v>
+        <v>0.05893148655611132</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>63</v>
@@ -9000,19 +9000,19 @@
         <v>39819</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>30821</v>
+        <v>30764</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53287</v>
+        <v>55739</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06391299301656816</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04947064465761283</v>
+        <v>0.04938005606978254</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08553183965481406</v>
+        <v>0.08946775224657913</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>83</v>
@@ -9021,19 +9021,19 @@
         <v>58372</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>45852</v>
+        <v>44787</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>75228</v>
+        <v>73496</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05203676766141704</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04087569096768507</v>
+        <v>0.03992630210081172</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06706324545194503</v>
+        <v>0.06551940684473588</v>
       </c>
     </row>
     <row r="5">
@@ -9050,19 +9050,19 @@
         <v>42265</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>30723</v>
+        <v>30908</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>57068</v>
+        <v>56033</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08474306581378108</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06160232957234477</v>
+        <v>0.06197307322233255</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1144253233490729</v>
+        <v>0.1123497443551054</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>83</v>
@@ -9071,19 +9071,19 @@
         <v>59931</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>47350</v>
+        <v>47501</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>76567</v>
+        <v>76348</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.096195326584965</v>
+        <v>0.09619532658496502</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07600173696091678</v>
+        <v>0.07624404402813821</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1228976016655871</v>
+        <v>0.1225465387347919</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>127</v>
@@ -9092,19 +9092,19 @@
         <v>102196</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>86330</v>
+        <v>85687</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>122427</v>
+        <v>123489</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09110356109839769</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07695975541693306</v>
+        <v>0.07638654850782087</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.109138876650831</v>
+        <v>0.110085933517504</v>
       </c>
     </row>
     <row r="6">
@@ -9121,19 +9121,19 @@
         <v>70350</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>56263</v>
+        <v>56004</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>88562</v>
+        <v>88090</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1410566661833417</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1128108634719803</v>
+        <v>0.1122914044992684</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1775709255301496</v>
+        <v>0.1766251821526794</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>199</v>
@@ -9142,19 +9142,19 @@
         <v>129552</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>112294</v>
+        <v>113633</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>145568</v>
+        <v>148228</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2079442389581181</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1802442177127053</v>
+        <v>0.182392476229626</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.233651967733373</v>
+        <v>0.237921478365428</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>272</v>
@@ -9163,19 +9163,19 @@
         <v>199902</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>179104</v>
+        <v>175223</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>228509</v>
+        <v>224747</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1782054964216383</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1596650159870044</v>
+        <v>0.1562050168062387</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2037075357338596</v>
+        <v>0.2003541780979453</v>
       </c>
     </row>
     <row r="7">
@@ -9192,19 +9192,19 @@
         <v>74784</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>58355</v>
+        <v>60606</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>90861</v>
+        <v>93681</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1499470742339871</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1170058112361833</v>
+        <v>0.121518351425852</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1821819216552198</v>
+        <v>0.1878365563009519</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>140</v>
@@ -9213,19 +9213,19 @@
         <v>97430</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>82725</v>
+        <v>83577</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>115586</v>
+        <v>116552</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1563851567483474</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1327823715767965</v>
+        <v>0.134149590984211</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1855279468304071</v>
+        <v>0.1870790232503113</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>220</v>
@@ -9234,19 +9234,19 @@
         <v>172214</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>150117</v>
+        <v>150462</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>197388</v>
+        <v>198025</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1535227344719724</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1338239097530601</v>
+        <v>0.1341316827272028</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1759641695739624</v>
+        <v>0.1765318900141698</v>
       </c>
     </row>
     <row r="8">
@@ -9263,19 +9263,19 @@
         <v>104818</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>86727</v>
+        <v>84842</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>125802</v>
+        <v>124027</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2101665866281426</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1738917037005435</v>
+        <v>0.1701140201577732</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2522395704028533</v>
+        <v>0.2486807064621768</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>194</v>
@@ -9284,19 +9284,19 @@
         <v>147675</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>129321</v>
+        <v>127032</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>168536</v>
+        <v>168371</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2370332323775194</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2075734829300933</v>
+        <v>0.2038993730630025</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2705173425376712</v>
+        <v>0.2702532705758309</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>290</v>
@@ -9305,19 +9305,19 @@
         <v>252493</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>226142</v>
+        <v>225759</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>279146</v>
+        <v>281127</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2250881097244691</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2015974633329436</v>
+        <v>0.2012557674771495</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2488487696605284</v>
+        <v>0.2506141589494223</v>
       </c>
     </row>
     <row r="9">
@@ -9334,19 +9334,19 @@
         <v>187967</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>165209</v>
+        <v>162982</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>215945</v>
+        <v>216502</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3768852979405974</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3312538742279994</v>
+        <v>0.326788321395763</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4329829760114786</v>
+        <v>0.4340987589480668</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>181</v>
@@ -9355,19 +9355,19 @@
         <v>148606</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>128878</v>
+        <v>127295</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>167724</v>
+        <v>169115</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2385290523144819</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2068632715083296</v>
+        <v>0.2043223282661187</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2692148812838884</v>
+        <v>0.2714475465213984</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>323</v>
@@ -9376,19 +9376,19 @@
         <v>336574</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>305672</v>
+        <v>303628</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>374547</v>
+        <v>369081</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3000433306221055</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2724954375877889</v>
+        <v>0.2706729815968397</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3338950052769888</v>
+        <v>0.3290219429621016</v>
       </c>
     </row>
     <row r="10">
@@ -9480,19 +9480,19 @@
         <v>15086</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9255</v>
+        <v>9568</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>24168</v>
+        <v>23289</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01572848593999218</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.009649622836124689</v>
+        <v>0.00997589465934122</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.025197620406489</v>
+        <v>0.02428080301198071</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>64</v>
@@ -9501,19 +9501,19 @@
         <v>31164</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>24310</v>
+        <v>24239</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>39759</v>
+        <v>39366</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02792874681088896</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02178591172595617</v>
+        <v>0.02172239681368368</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03563135189774883</v>
+        <v>0.0352785937439268</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>85</v>
@@ -9522,19 +9522,19 @@
         <v>46250</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>36004</v>
+        <v>36637</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>56988</v>
+        <v>57507</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.02228928810759177</v>
+        <v>0.02228928810759176</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01735123611725658</v>
+        <v>0.01765626329359214</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0274639977280185</v>
+        <v>0.02771421314719089</v>
       </c>
     </row>
     <row r="12">
@@ -9551,19 +9551,19 @@
         <v>37051</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>26915</v>
+        <v>26603</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>48932</v>
+        <v>51511</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03862917487023434</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02806120360834701</v>
+        <v>0.0277361650316052</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05101623510741536</v>
+        <v>0.05370531586265544</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>119</v>
@@ -9572,19 +9572,19 @@
         <v>72401</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>61256</v>
+        <v>60920</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>86927</v>
+        <v>87151</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06488403817572976</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05489615112423255</v>
+        <v>0.05459555979333453</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07790221507014321</v>
+        <v>0.07810304580636225</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>161</v>
@@ -9593,19 +9593,19 @@
         <v>109452</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>93084</v>
+        <v>93823</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>130203</v>
+        <v>130125</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.05274796838682443</v>
+        <v>0.05274796838682442</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04485990703152883</v>
+        <v>0.04521578854016811</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06274858908830362</v>
+        <v>0.06271113291943833</v>
       </c>
     </row>
     <row r="13">
@@ -9622,19 +9622,19 @@
         <v>95026</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>77655</v>
+        <v>78286</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>114904</v>
+        <v>115618</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09907346234150403</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08096200750142639</v>
+        <v>0.08161998754256579</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1197981257085681</v>
+        <v>0.1205420421205821</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>260</v>
@@ -9643,19 +9643,19 @@
         <v>157822</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>138713</v>
+        <v>139443</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>178130</v>
+        <v>176152</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1414366467390113</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1243112824477374</v>
+        <v>0.1249654956147941</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1596364955524402</v>
+        <v>0.1578635503295755</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>370</v>
@@ -9664,19 +9664,19 @@
         <v>252848</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>229169</v>
+        <v>226729</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>282382</v>
+        <v>279331</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1218546532490356</v>
+        <v>0.1218546532490355</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1104430870183052</v>
+        <v>0.1092670833363396</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1360876911225883</v>
+        <v>0.1346176044490257</v>
       </c>
     </row>
     <row r="14">
@@ -9693,19 +9693,19 @@
         <v>146445</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>125562</v>
+        <v>124564</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>172109</v>
+        <v>170760</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1526827183011912</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1309098795170626</v>
+        <v>0.1298696348529889</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1794397567219709</v>
+        <v>0.1780323893618735</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>304</v>
@@ -9714,19 +9714,19 @@
         <v>195362</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>173866</v>
+        <v>174119</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>215747</v>
+        <v>216923</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1750790908492139</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1558150864619804</v>
+        <v>0.1560419891964181</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1933480936799781</v>
+        <v>0.1944017217460961</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>461</v>
@@ -9735,19 +9735,19 @@
         <v>341807</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>311751</v>
+        <v>311756</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>375032</v>
+        <v>376621</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1647265730280971</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1502416150268757</v>
+        <v>0.1502439106864737</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1807385354464401</v>
+        <v>0.1815041831018887</v>
       </c>
     </row>
     <row r="15">
@@ -9764,19 +9764,19 @@
         <v>271073</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>241453</v>
+        <v>241336</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>298946</v>
+        <v>302499</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2826181492965238</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2517364647556612</v>
+        <v>0.2516143495506182</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3116781865385153</v>
+        <v>0.3153823060316539</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>456</v>
@@ -9785,19 +9785,19 @@
         <v>316776</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>290799</v>
+        <v>291781</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>342648</v>
+        <v>345456</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2838879469197413</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2606074776047122</v>
+        <v>0.2614877893159305</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3070739854873188</v>
+        <v>0.3095900656771882</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>723</v>
@@ -9806,19 +9806,19 @@
         <v>587849</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>550008</v>
+        <v>550553</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>630773</v>
+        <v>628897</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2833009946132737</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2650645619532025</v>
+        <v>0.2653271147413633</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3039872727509539</v>
+        <v>0.3030831982530538</v>
       </c>
     </row>
     <row r="16">
@@ -9835,19 +9835,19 @@
         <v>394467</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>361366</v>
+        <v>360226</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>428082</v>
+        <v>429384</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.4112680092505544</v>
+        <v>0.4112680092505545</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3767565632502489</v>
+        <v>0.3755684124232235</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4463144802551879</v>
+        <v>0.4476713860186767</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>404</v>
@@ -9856,19 +9856,19 @@
         <v>342324</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>312868</v>
+        <v>313268</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>369476</v>
+        <v>370127</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3067835305054147</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2803855454204019</v>
+        <v>0.2807437524450148</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3311163958540375</v>
+        <v>0.3317001000271372</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>716</v>
@@ -9877,19 +9877,19 @@
         <v>736791</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>691023</v>
+        <v>696082</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>779908</v>
+        <v>782389</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3550805226151775</v>
+        <v>0.3550805226151774</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3330235512302728</v>
+        <v>0.3354615622105208</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3758598354424792</v>
+        <v>0.3770554783878414</v>
       </c>
     </row>
     <row r="17">
@@ -9981,19 +9981,19 @@
         <v>7869</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4040</v>
+        <v>4082</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14122</v>
+        <v>14208</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.007519449505772054</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.003860583022166468</v>
+        <v>0.00390097768030257</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01349495387986155</v>
+        <v>0.01357661709573889</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>37</v>
@@ -10002,19 +10002,19 @@
         <v>19916</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>13691</v>
+        <v>13759</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>27652</v>
+        <v>26772</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.01901050222130266</v>
+        <v>0.01901050222130267</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01306857063214248</v>
+        <v>0.01313364544323984</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02639464200089187</v>
+        <v>0.0255546964862975</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>49</v>
@@ -10023,19 +10023,19 @@
         <v>27785</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>20546</v>
+        <v>20405</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>37339</v>
+        <v>36555</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.01326816496036116</v>
+        <v>0.01326816496036117</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.009811204926901291</v>
+        <v>0.009743753049923615</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01783043146112414</v>
+        <v>0.01745577675571836</v>
       </c>
     </row>
     <row r="19">
@@ -10052,19 +10052,19 @@
         <v>34684</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>24416</v>
+        <v>24702</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>49956</v>
+        <v>49267</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0331437371867376</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02333124539138694</v>
+        <v>0.02360502710366154</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04773720519821464</v>
+        <v>0.04707919255867476</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>84</v>
@@ -10073,19 +10073,19 @@
         <v>49356</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>39017</v>
+        <v>39376</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>60649</v>
+        <v>62144</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.04711133837570509</v>
+        <v>0.04711133837570511</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03724271079695217</v>
+        <v>0.03758535313478464</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05789122348647031</v>
+        <v>0.05931803271469211</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>123</v>
@@ -10094,19 +10094,19 @@
         <v>84040</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>68244</v>
+        <v>69220</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>100675</v>
+        <v>102588</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.04013141419130236</v>
+        <v>0.04013141419130237</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03258830319017148</v>
+        <v>0.03305428185254902</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04807511950691967</v>
+        <v>0.04898863273255057</v>
       </c>
     </row>
     <row r="20">
@@ -10123,19 +10123,19 @@
         <v>99976</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>83114</v>
+        <v>83556</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>121257</v>
+        <v>119654</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09553519895646587</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07942223967626151</v>
+        <v>0.079844932794114</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1158718584916348</v>
+        <v>0.1143400785631535</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>281</v>
@@ -10144,19 +10144,19 @@
         <v>170621</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>150280</v>
+        <v>151001</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>190763</v>
+        <v>192408</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1628623752546004</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.143445608985055</v>
+        <v>0.1441343326534713</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1820881388746761</v>
+        <v>0.183658097037424</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>402</v>
@@ -10165,19 +10165,19 @@
         <v>270597</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>245918</v>
+        <v>243306</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>298804</v>
+        <v>297696</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1292174723286718</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1174324066985044</v>
+        <v>0.1161850490396088</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1426870413134545</v>
+        <v>0.1421578736681416</v>
       </c>
     </row>
     <row r="21">
@@ -10194,19 +10194,19 @@
         <v>160201</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>135271</v>
+        <v>138844</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>184955</v>
+        <v>188359</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1530861026023483</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1292627846654904</v>
+        <v>0.1326773332696078</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1767406695320991</v>
+        <v>0.1799933560784954</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>253</v>
@@ -10215,19 +10215,19 @@
         <v>165907</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>147174</v>
+        <v>147435</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>186279</v>
+        <v>186092</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.1583626964146207</v>
+        <v>0.1583626964146208</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1404809939745692</v>
+        <v>0.1407305291926687</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1778078117415362</v>
+        <v>0.1776296968149251</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>423</v>
@@ -10236,19 +10236,19 @@
         <v>326109</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>295901</v>
+        <v>294616</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>355648</v>
+        <v>360497</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1557258639146607</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1413007260753045</v>
+        <v>0.1406872923634798</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1698317651612381</v>
+        <v>0.1721469545114901</v>
       </c>
     </row>
     <row r="22">
@@ -10265,19 +10265,19 @@
         <v>319166</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>286991</v>
+        <v>286559</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>353560</v>
+        <v>352963</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.3049900816699464</v>
+        <v>0.3049900816699465</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2742447091140827</v>
+        <v>0.2738316215577103</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3378572145885621</v>
+        <v>0.3372866338972834</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>416</v>
@@ -10286,19 +10286,19 @@
         <v>284429</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>260047</v>
+        <v>257837</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>310671</v>
+        <v>309136</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2714939905272133</v>
+        <v>0.2714939905272134</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2482212169427311</v>
+        <v>0.2461117967348756</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2965432794307492</v>
+        <v>0.2950781905514123</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>732</v>
@@ -10307,19 +10307,19 @@
         <v>603594</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>566226</v>
+        <v>562937</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>647792</v>
+        <v>648035</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2882327399722355</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2703882280484248</v>
+        <v>0.2688179653805239</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3093385825074045</v>
+        <v>0.3094543314128902</v>
       </c>
     </row>
     <row r="23">
@@ -10336,19 +10336,19 @@
         <v>424583</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>392509</v>
+        <v>390288</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>465863</v>
+        <v>458862</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4057254300787297</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3750757965215383</v>
+        <v>0.3729533569833969</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4451715628862114</v>
+        <v>0.4384817883365991</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>445</v>
@@ -10357,19 +10357,19 @@
         <v>357413</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>330928</v>
+        <v>329633</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>383105</v>
+        <v>386910</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3411590972065578</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3158792327774228</v>
+        <v>0.3146430947939498</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3656832115462828</v>
+        <v>0.3693155214730251</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>816</v>
@@ -10378,19 +10378,19 @@
         <v>781996</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>740442</v>
+        <v>739526</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>834775</v>
+        <v>829073</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.3734243446327684</v>
+        <v>0.3734243446327685</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3535815092780822</v>
+        <v>0.35314403375964</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3986280704697848</v>
+        <v>0.3959047968978525</v>
       </c>
     </row>
     <row r="24">
@@ -10482,19 +10482,19 @@
         <v>14450</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8026</v>
+        <v>7807</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>24309</v>
+        <v>25893</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01480647890544305</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008224060158826053</v>
+        <v>0.007999467564121581</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02490841863093615</v>
+        <v>0.02653184008326093</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>30</v>
@@ -10503,19 +10503,19 @@
         <v>18792</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>13463</v>
+        <v>12661</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>26796</v>
+        <v>26291</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02072668425129151</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01484901800331588</v>
+        <v>0.01396401787596675</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02955371077040487</v>
+        <v>0.02899653648583987</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>46</v>
@@ -10524,19 +10524,19 @@
         <v>33243</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>25022</v>
+        <v>23967</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>45861</v>
+        <v>44886</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01765769759880536</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01329125225334239</v>
+        <v>0.01273052400295235</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02436055391585885</v>
+        <v>0.02384232204451215</v>
       </c>
     </row>
     <row r="26">
@@ -10553,19 +10553,19 @@
         <v>49801</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>36267</v>
+        <v>36306</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>68193</v>
+        <v>66423</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.05102936066137674</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0371617650267632</v>
+        <v>0.03720127945699257</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06987456050142214</v>
+        <v>0.06806164912071123</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>66</v>
@@ -10574,19 +10574,19 @@
         <v>37744</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>29080</v>
+        <v>29176</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>47795</v>
+        <v>47806</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04162853786239624</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03207313336758195</v>
+        <v>0.03217883164004678</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05271441485437085</v>
+        <v>0.05272605865985694</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>117</v>
@@ -10595,19 +10595,19 @@
         <v>87545</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>72707</v>
+        <v>71779</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>108488</v>
+        <v>105603</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.04650184850063118</v>
+        <v>0.04650184850063119</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03862018006212856</v>
+        <v>0.03812736054840406</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0576264002115804</v>
+        <v>0.05609374064016669</v>
       </c>
     </row>
     <row r="27">
@@ -10624,19 +10624,19 @@
         <v>161632</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>139743</v>
+        <v>140133</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>185594</v>
+        <v>187910</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.165618461460917</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1431897688849478</v>
+        <v>0.1435890742707406</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1901714307429653</v>
+        <v>0.1925448439058966</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>318</v>
@@ -10645,19 +10645,19 @@
         <v>192568</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>171846</v>
+        <v>170970</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>215236</v>
+        <v>215427</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.21238796016324</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1895335516380061</v>
+        <v>0.1885673718433057</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2373887436562847</v>
+        <v>0.2375995983662939</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>510</v>
@@ -10666,19 +10666,19 @@
         <v>354200</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>325334</v>
+        <v>322629</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>386534</v>
+        <v>388048</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1881430296454918</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1728099820298567</v>
+        <v>0.1713731270442717</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.205318001740133</v>
+        <v>0.2061226106720306</v>
       </c>
     </row>
     <row r="28">
@@ -10695,19 +10695,19 @@
         <v>150780</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>129641</v>
+        <v>128452</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>177047</v>
+        <v>176803</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1544985243987185</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1328387005502157</v>
+        <v>0.1316205145025925</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1814142742943664</v>
+        <v>0.1811633340758993</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>214</v>
@@ -10716,19 +10716,19 @@
         <v>136817</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>117995</v>
+        <v>119414</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>156982</v>
+        <v>156561</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1508985901586662</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1301399572626959</v>
+        <v>0.131704972398719</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1731392733296942</v>
+        <v>0.1726745354477124</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>367</v>
@@ -10737,19 +10737,19 @@
         <v>287596</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>256363</v>
+        <v>261131</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>320732</v>
+        <v>321279</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.1527647670034095</v>
+        <v>0.1527647670034096</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1361744036158149</v>
+        <v>0.1387069091497422</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1703659171402101</v>
+        <v>0.1706564451779926</v>
       </c>
     </row>
     <row r="29">
@@ -10766,19 +10766,19 @@
         <v>257785</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>227662</v>
+        <v>226925</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>291328</v>
+        <v>287713</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2641436347551922</v>
+        <v>0.2641436347551921</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2332776159214094</v>
+        <v>0.232522117905288</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.298513123337951</v>
+        <v>0.2948094216984826</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>343</v>
@@ -10787,19 +10787,19 @@
         <v>243471</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>222540</v>
+        <v>221872</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>269087</v>
+        <v>270338</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2685302553778653</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2454454327137084</v>
+        <v>0.2447082114357164</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2967829078522379</v>
+        <v>0.2981624710406165</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>584</v>
@@ -10808,19 +10808,19 @@
         <v>501256</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>463038</v>
+        <v>460592</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>541965</v>
+        <v>538822</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.2662562666639527</v>
+        <v>0.2662562666639528</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2459552372850218</v>
+        <v>0.2446561404471204</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2878797742767052</v>
+        <v>0.2862100726284406</v>
       </c>
     </row>
     <row r="30">
@@ -10837,19 +10837,19 @@
         <v>341481</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>308361</v>
+        <v>305310</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>379332</v>
+        <v>377758</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3499035398183526</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3159665709329574</v>
+        <v>0.3128407954449867</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3886878107259777</v>
+        <v>0.3870749168009369</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>348</v>
@@ -10858,19 +10858,19 @@
         <v>277288</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>252431</v>
+        <v>252168</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>305471</v>
+        <v>303809</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3058279721865407</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2784126226229836</v>
+        <v>0.2781219249431992</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3369113091369351</v>
+        <v>0.3350781500934319</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>642</v>
@@ -10879,19 +10879,19 @@
         <v>618769</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>577581</v>
+        <v>578736</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>662101</v>
+        <v>666295</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3286763905877094</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3067979542869391</v>
+        <v>0.3074115959868465</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3516932727288977</v>
+        <v>0.3539208706943537</v>
       </c>
     </row>
     <row r="31">
@@ -10983,19 +10983,19 @@
         <v>55959</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>41884</v>
+        <v>44022</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>71707</v>
+        <v>72230</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01607872685956963</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01203455355052307</v>
+        <v>0.01264898597688276</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0206037421717477</v>
+        <v>0.02075411063355903</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>194</v>
@@ -11004,19 +11004,19 @@
         <v>109691</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>93190</v>
+        <v>93564</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>127599</v>
+        <v>129036</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02970107164681715</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02523307373490649</v>
+        <v>0.02533412509963534</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03454975609159228</v>
+        <v>0.03493897274241883</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>263</v>
@@ -11025,19 +11025,19 @@
         <v>165650</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>145248</v>
+        <v>145787</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>189958</v>
+        <v>190694</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.0230920326777157</v>
+        <v>0.02309203267771569</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02024787649399558</v>
+        <v>0.02032298798073264</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02648056891753488</v>
+        <v>0.02658324867671196</v>
       </c>
     </row>
     <row r="33">
@@ -11054,19 +11054,19 @@
         <v>163801</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>140726</v>
+        <v>138500</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>189830</v>
+        <v>190362</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.04706527130666593</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.0404351124580323</v>
+        <v>0.03979552843597389</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.0545441195893207</v>
+        <v>0.05469714266439961</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>352</v>
@@ -11075,19 +11075,19 @@
         <v>219431</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>196501</v>
+        <v>195344</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>244006</v>
+        <v>245554</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.05941520207083928</v>
+        <v>0.05941520207083929</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.05320654302184526</v>
+        <v>0.05289300706564107</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.06606922621046402</v>
+        <v>0.066488558043253</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>528</v>
@@ -11096,19 +11096,19 @@
         <v>383232</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>349591</v>
+        <v>346765</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>423459</v>
+        <v>421332</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.05342348956019018</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.04873377304340602</v>
+        <v>0.04833983853933753</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.0590311557904638</v>
+        <v>0.05873463164070052</v>
       </c>
     </row>
     <row r="34">
@@ -11125,19 +11125,19 @@
         <v>426984</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>387268</v>
+        <v>392384</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>468812</v>
+        <v>467907</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1226861508470638</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1112745097288842</v>
+        <v>0.1127442739152651</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1347045218801353</v>
+        <v>0.1344445358875314</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1058</v>
@@ -11146,19 +11146,19 @@
         <v>650563</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>611191</v>
+        <v>614062</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>691050</v>
+        <v>685976</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1761523984235014</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1654916424804142</v>
+        <v>0.1662691460033373</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.187115103360832</v>
+        <v>0.1857412420514367</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1554</v>
@@ -11167,19 +11167,19 @@
         <v>1077547</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1020169</v>
+        <v>1026693</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1133373</v>
+        <v>1137974</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1502126267261136</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1422139742388241</v>
+        <v>0.1431234856968956</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1579948940160594</v>
+        <v>0.1586362261545387</v>
       </c>
     </row>
     <row r="35">
@@ -11196,19 +11196,19 @@
         <v>532211</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>490773</v>
+        <v>491879</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>578709</v>
+        <v>575186</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.1529211629272583</v>
+        <v>0.1529211629272584</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1410147980026748</v>
+        <v>0.1413325280354012</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1662814348520892</v>
+        <v>0.1652692065651596</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>911</v>
@@ -11217,19 +11217,19 @@
         <v>595516</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>558621</v>
+        <v>560547</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>634133</v>
+        <v>637314</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.1612473077845603</v>
+        <v>0.1612473077845604</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1512572368005209</v>
+        <v>0.1517787779978429</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1717036620164375</v>
+        <v>0.1725650871102269</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1471</v>
@@ -11238,19 +11238,19 @@
         <v>1127727</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1070425</v>
+        <v>1069957</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1186682</v>
+        <v>1189533</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1572077817937187</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1492198111707193</v>
+        <v>0.1491546076220522</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1654263492857351</v>
+        <v>0.1658237218528798</v>
       </c>
     </row>
     <row r="36">
@@ -11267,19 +11267,19 @@
         <v>952843</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>893275</v>
+        <v>898230</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1011371</v>
+        <v>1012857</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2737819772411814</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2566663847244473</v>
+        <v>0.2580900456383813</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2905991065337841</v>
+        <v>0.2910261576120963</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1409</v>
@@ -11288,19 +11288,19 @@
         <v>992350</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>941542</v>
+        <v>944777</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1039226</v>
+        <v>1045130</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2686978045612929</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2549404913273886</v>
+        <v>0.2558164487925326</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2813903870374181</v>
+        <v>0.2829889077513565</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2329</v>
@@ -11309,19 +11309,19 @@
         <v>1945192</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1875708</v>
+        <v>1871409</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2028768</v>
+        <v>2020849</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.2711644500538133</v>
+        <v>0.2711644500538134</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2614781546504836</v>
+        <v>0.2608788163185081</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2828150900039346</v>
+        <v>0.2817110860198138</v>
       </c>
     </row>
     <row r="37">
@@ -11338,19 +11338,19 @@
         <v>1348499</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1283273</v>
+        <v>1279502</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1419069</v>
+        <v>1413716</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.387466710818261</v>
+        <v>0.3874667108182608</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3687250544742243</v>
+        <v>0.3676416449644732</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.407743729786739</v>
+        <v>0.4062054738329773</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1378</v>
@@ -11359,19 +11359,19 @@
         <v>1125631</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1075550</v>
+        <v>1074257</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1179754</v>
+        <v>1176437</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3047862155129888</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2912258807832497</v>
+        <v>0.2908757663031817</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3194411917021541</v>
+        <v>0.318543026968277</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2497</v>
@@ -11380,19 +11380,19 @@
         <v>2474130</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2392280</v>
+        <v>2390546</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2566189</v>
+        <v>2560107</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3448996191884485</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3334894818493154</v>
+        <v>0.333247788043083</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.357732888222927</v>
+        <v>0.3568849706423462</v>
       </c>
     </row>
     <row r="38">
